--- a/output/경기대로_겨울_배출량/경기대로_겨울_배출량_CO.xlsx
+++ b/output/경기대로_겨울_배출량/경기대로_겨울_배출량_CO.xlsx
@@ -1,37 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_CO</t>
+  </si>
+  <si>
+    <t>02_taxi_CO</t>
+  </si>
+  <si>
+    <t>03_van_CO</t>
+  </si>
+  <si>
+    <t>04_bus_CO</t>
+  </si>
+  <si>
+    <t>05_LightTruck_CO</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_CO</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_CO</t>
+  </si>
+  <si>
+    <t>Total_CO (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +81,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,1298 +397,1417 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_CO</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_CO</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_CO</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_CO</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_CO</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_CO</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Total_CO (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
         <v>2024121610</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>491.2299458171671</v>
       </c>
-      <c r="C2" t="n">
-        <v>2.181457665518717</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2">
+        <v>9.867770827915926</v>
+      </c>
+      <c r="D2">
         <v>77.06241946577514</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
+        <v>11.83033764676418</v>
+      </c>
+      <c r="F2">
         <v>23.23440439444323</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2">
         <v>120.0710494352796</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2">
         <v>5.528571749758867</v>
       </c>
-      <c r="H2" t="n">
-        <v>719.3078485279427</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="I2">
+        <v>738.824499337104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
         <v>2024121611</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>510.779618045781</v>
       </c>
-      <c r="C3" t="n">
-        <v>1.912970568224105</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C3">
+        <v>8.653275956787812</v>
+      </c>
+      <c r="D3">
         <v>70.64055117696053</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
+        <v>11.83033764676418</v>
+      </c>
+      <c r="F3">
         <v>18.21341022445762</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3">
         <v>103.509525375241</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3">
         <v>7.601786155918439</v>
       </c>
-      <c r="H3" t="n">
-        <v>712.6578615465828</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="I3">
+        <v>731.2285045819108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
         <v>2024121612</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>538.5046077518152</v>
       </c>
-      <c r="C4" t="n">
-        <v>2.047214116871412</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="C4">
+        <v>9.260523392351869</v>
+      </c>
+      <c r="D4">
         <v>69.57023979549145</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
+        <v>11.09094154384142</v>
+      </c>
+      <c r="F4">
         <v>20.5762310103332</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4">
         <v>93.15857283771693</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4">
         <v>6.910714687198581</v>
       </c>
-      <c r="H4" t="n">
-        <v>730.7675801994269</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="I4">
+        <v>749.0718310187488</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
         <v>2024121613</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>535.6610190640167</v>
       </c>
-      <c r="C5" t="n">
-        <v>1.510239922282189</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="C5">
+        <v>6.831533650095641</v>
+      </c>
+      <c r="D5">
         <v>64.21868288814596</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
+        <v>11.09094154384142</v>
+      </c>
+      <c r="F5">
         <v>20.77313274248949</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5">
         <v>70.38647725516387</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5">
         <v>5.528571749758867</v>
       </c>
-      <c r="H5" t="n">
-        <v>698.078123621857</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="I5">
+        <v>714.4903588935118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
         <v>2024121614</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>553.7888969487312</v>
       </c>
-      <c r="C6" t="n">
-        <v>1.812287906738626</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="C6">
+        <v>8.197840380114769</v>
+      </c>
+      <c r="D6">
         <v>75.99210808430607</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
+        <v>14.04852595553245</v>
+      </c>
+      <c r="F6">
         <v>17.81960676014502</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6">
         <v>74.52685827017352</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6">
         <v>4.146428812319149</v>
       </c>
-      <c r="H6" t="n">
-        <v>728.0861867824137</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="I6">
+        <v>748.5202652113222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
         <v>2024121615</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>565.1632516999247</v>
       </c>
-      <c r="C7" t="n">
-        <v>1.577361696605841</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="C7">
+        <v>7.13515736787767</v>
+      </c>
+      <c r="D7">
         <v>79.20304222871329</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
+        <v>13.30912985260969</v>
+      </c>
+      <c r="F7">
         <v>15.65368770642573</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7">
         <v>60.0355247176398</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7">
         <v>8.983929093358153</v>
       </c>
-      <c r="H7" t="n">
-        <v>730.6167971426675</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="I7">
+        <v>749.4837226665489</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
         <v>2024121616</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>619.1914367680935</v>
       </c>
-      <c r="C8" t="n">
-        <v>1.745166132414973</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="C8">
+        <v>7.894216662332743</v>
+      </c>
+      <c r="D8">
         <v>74.92179670283699</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
+        <v>25.13946749937387</v>
+      </c>
+      <c r="F8">
         <v>17.03199983151983</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8">
         <v>39.33361964259161</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8">
         <v>7.601786155918439</v>
       </c>
-      <c r="H8" t="n">
-        <v>759.8258052333754</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="I8">
+        <v>791.114323262667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
         <v>2024121617</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>683.172182243557</v>
       </c>
-      <c r="C9" t="n">
-        <v>1.476679035120362</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="C9">
+        <v>6.679721791204628</v>
+      </c>
+      <c r="D9">
         <v>71.71086255842964</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
+        <v>45.8425583812112</v>
+      </c>
+      <c r="F9">
         <v>15.94904030466018</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9">
         <v>39.33361964259161</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9">
         <v>4.837500281039007</v>
       </c>
-      <c r="H9" t="n">
-        <v>816.4798840653979</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="I9">
+        <v>867.5254852026934</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
         <v>2024121618</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>656.5135382954471</v>
       </c>
-      <c r="C10" t="n">
-        <v>1.678044358091321</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="C10">
+        <v>7.590592944550714</v>
+      </c>
+      <c r="D10">
         <v>88.83584466193518</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
+        <v>55.45470771920706</v>
+      </c>
+      <c r="F10">
         <v>8.56522534879899</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10">
         <v>28.98266710506748</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10">
         <v>2.073214406159575</v>
       </c>
-      <c r="H10" t="n">
-        <v>786.6485341754997</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="I10">
+        <v>848.0157904811661</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
         <v>2024121619</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>474.8793108623266</v>
       </c>
-      <c r="C11" t="n">
-        <v>1.375996373634883</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="C11">
+        <v>6.224286214531584</v>
+      </c>
+      <c r="D11">
         <v>63.14837150667684</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
+        <v>44.36376617536567</v>
+      </c>
+      <c r="F11">
         <v>4.430288973516717</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11">
         <v>24.84228609005784</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11">
         <v>2.073214406159575</v>
       </c>
-      <c r="H11" t="n">
-        <v>570.7494682123724</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="I11">
+        <v>619.9615242286347</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
         <v>2024121620</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>397.0360705338466</v>
       </c>
-      <c r="C12" t="n">
-        <v>1.510239922282189</v>
-      </c>
-      <c r="D12" t="n">
+      <c r="C12">
+        <v>6.831533650095641</v>
+      </c>
+      <c r="D12">
         <v>55.65619183639315</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
+        <v>34.75161683736977</v>
+      </c>
+      <c r="F12">
         <v>3.93803464312597</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12">
         <v>31.0528576125723</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12">
         <v>2.764285874879433</v>
       </c>
-      <c r="H12" t="n">
-        <v>491.9576804230996</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="I12">
+        <v>532.0305909882828</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
         <v>2024121621</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>327.7235962687614</v>
       </c>
-      <c r="C13" t="n">
-        <v>1.006826614854792</v>
-      </c>
-      <c r="D13" t="n">
+      <c r="C13">
+        <v>4.554355766730428</v>
+      </c>
+      <c r="D13">
         <v>44.95307802170218</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
+        <v>25.87886360229663</v>
+      </c>
+      <c r="F13">
         <v>1.969017321562985</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13">
         <v>14.49133355253374</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13">
         <v>1.382142937439717</v>
       </c>
-      <c r="H13" t="n">
-        <v>391.5259947168548</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="I13">
+        <v>420.9523874710271</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
         <v>2024121622</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>250.9467016982054</v>
       </c>
-      <c r="C14" t="n">
-        <v>0.9061439533693132</v>
-      </c>
-      <c r="D14" t="n">
+      <c r="C14">
+        <v>4.098920190057385</v>
+      </c>
+      <c r="D14">
         <v>23.54685039232017</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
+        <v>11.83033764676418</v>
+      </c>
+      <c r="F14">
         <v>2.461271651953732</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14">
         <v>10.3509525375241</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14">
         <v>2.073214406159575</v>
       </c>
-      <c r="H14" t="n">
-        <v>290.2851346395323</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="I14">
+        <v>305.3082485229846</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
         <v>2024121623</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>147.5111631795401</v>
       </c>
-      <c r="C15" t="n">
-        <v>0.4027306459419169</v>
-      </c>
-      <c r="D15" t="n">
+      <c r="C15">
+        <v>1.821742306692172</v>
+      </c>
+      <c r="D15">
         <v>12.84373657762919</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
+        <v>7.39396102922761</v>
+      </c>
+      <c r="F15">
         <v>1.969017321562985</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15">
         <v>14.49133355253374</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15">
         <v>0.6910714687198584</v>
       </c>
-      <c r="H15" t="n">
-        <v>177.9090527459277</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="I15">
+        <v>186.7220254359056</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
         <v>2024121700</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>118.7198277155817</v>
       </c>
-      <c r="C16" t="n">
-        <v>0.7719004047220076</v>
-      </c>
-      <c r="D16" t="n">
+      <c r="C16">
+        <v>3.491672754493328</v>
+      </c>
+      <c r="D16">
         <v>14.98435934056739</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
+        <v>2.218188308768283</v>
+      </c>
+      <c r="F16">
         <v>1.082959526859642</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16">
         <v>16.56152406003856</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16">
         <v>0.6910714687198584</v>
       </c>
-      <c r="H16" t="n">
-        <v>152.8116425164891</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="I16">
+        <v>157.7496031750287</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
         <v>2024121701</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>75.35510022665665</v>
       </c>
-      <c r="C17" t="n">
-        <v>1.040387502016619</v>
-      </c>
-      <c r="D17" t="n">
+      <c r="C17">
+        <v>4.706167625621442</v>
+      </c>
+      <c r="D17">
         <v>7.492179670283694</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
+        <v>0.7393961029227613</v>
+      </c>
+      <c r="F17">
         <v>2.264369919797433</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17">
         <v>16.56152406003856</v>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
-        <v>102.7135613787929</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="I17">
+        <v>107.1187376053205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
         <v>2024121702</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>51.54004496634531</v>
       </c>
-      <c r="C18" t="n">
-        <v>0.9061439533693132</v>
-      </c>
-      <c r="D18" t="n">
+      <c r="C18">
+        <v>4.098920190057385</v>
+      </c>
+      <c r="D18">
         <v>7.492179670283694</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
+        <v>0.7393961029227613</v>
+      </c>
+      <c r="F18">
         <v>1.181410392937791</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18">
         <v>22.77209558255304</v>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
-        <v>83.89187456548915</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="I18">
+        <v>87.82404690509996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
         <v>2024121703</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>53.31728789621931</v>
       </c>
-      <c r="C19" t="n">
-        <v>0.7719004047220076</v>
-      </c>
-      <c r="D19" t="n">
+      <c r="C19">
+        <v>3.491672754493328</v>
+      </c>
+      <c r="D19">
         <v>10.70311381469099</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
+        <v>3.696980514613805</v>
+      </c>
+      <c r="F19">
         <v>2.067468187641134</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19">
         <v>18.63171456754338</v>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
-        <v>85.49148487081683</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="I19">
+        <v>91.90823773520195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
         <v>2024121704</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>91.35028659552241</v>
       </c>
-      <c r="C20" t="n">
-        <v>0.4698524202655698</v>
-      </c>
-      <c r="D20" t="n">
+      <c r="C20">
+        <v>2.1253660244742</v>
+      </c>
+      <c r="D20">
         <v>16.05467072203649</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
+        <v>2.218188308768283</v>
+      </c>
+      <c r="F20">
         <v>4.134936375282268</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20">
         <v>22.77209558255304</v>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
-        <v>134.7818416956598</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="I20">
+        <v>138.6555436086367</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
         <v>2024121705</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>211.847357240978</v>
       </c>
-      <c r="C21" t="n">
-        <v>0.4027306459419169</v>
-      </c>
-      <c r="D21" t="n">
+      <c r="C21">
+        <v>1.821742306692172</v>
+      </c>
+      <c r="D21">
         <v>37.46089835141849</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
+        <v>28.09705191106491</v>
+      </c>
+      <c r="F21">
         <v>7.088462357626748</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21">
         <v>60.0355247176398</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21">
         <v>0.6910714687198584</v>
       </c>
-      <c r="H21" t="n">
-        <v>317.5260447823248</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="I21">
+        <v>347.0421083541399</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
         <v>2024121706</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>377.130949719258</v>
       </c>
-      <c r="C22" t="n">
-        <v>1.342435486473057</v>
-      </c>
-      <c r="D22" t="n">
+      <c r="C22">
+        <v>6.07247435564057</v>
+      </c>
+      <c r="D22">
         <v>67.42961703255328</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
+        <v>72.46081808643056</v>
+      </c>
+      <c r="F22">
         <v>11.81410392937791</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22">
         <v>93.15857283771693</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22">
         <v>3.455357343599291</v>
       </c>
-      <c r="H22" t="n">
-        <v>554.3310363489784</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="I22">
+        <v>631.5218933045766</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
         <v>2024121707</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>522.153972796974</v>
       </c>
-      <c r="C23" t="n">
-        <v>0.6712177432365283</v>
-      </c>
-      <c r="D23" t="n">
+      <c r="C23">
+        <v>3.036237177820285</v>
+      </c>
+      <c r="D23">
         <v>44.95307802170218</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
+        <v>60.63048043966642</v>
+      </c>
+      <c r="F23">
         <v>13.9800229830972</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23">
         <v>84.8778108076976</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23">
         <v>6.910714687198581</v>
       </c>
-      <c r="H23" t="n">
-        <v>673.5468170399062</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="I23">
+        <v>736.5423169141563</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
         <v>2024121708</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>611.0161192906737</v>
       </c>
-      <c r="C24" t="n">
-        <v>0.8054612918838339</v>
-      </c>
-      <c r="D24" t="n">
+      <c r="C24">
+        <v>3.643484613384343</v>
+      </c>
+      <c r="D24">
         <v>55.65619183639315</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
+        <v>26.61825970521939</v>
+      </c>
+      <c r="F24">
         <v>14.86608077780054</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24">
         <v>118.0008589277747</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24">
         <v>5.528571749758867</v>
       </c>
-      <c r="H24" t="n">
-        <v>805.8732838742849</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="I24">
+        <v>835.3295669010048</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
         <v>2024121709</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>493.3626373330162</v>
       </c>
-      <c r="C25" t="n">
-        <v>1.644483470929494</v>
-      </c>
-      <c r="D25" t="n">
+      <c r="C25">
+        <v>7.438781085659699</v>
+      </c>
+      <c r="D25">
         <v>72.78117393989874</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
+        <v>19.96369477891455</v>
+      </c>
+      <c r="F25">
         <v>19.00101715308281</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25">
         <v>138.702764002823</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25">
         <v>2.764285874879433</v>
       </c>
-      <c r="H25" t="n">
-        <v>728.2563617746297</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="I25">
+        <v>754.0143541682745</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
         <v>2024121710</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>505.0924406701842</v>
       </c>
-      <c r="C26" t="n">
-        <v>1.812287906738626</v>
-      </c>
-      <c r="D26" t="n">
+      <c r="C26">
+        <v>8.197840380114769</v>
+      </c>
+      <c r="D26">
         <v>69.57023979549145</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
+        <v>11.83033764676418</v>
+      </c>
+      <c r="F26">
         <v>24.80961825169362</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26">
         <v>142.8431450178327</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26">
         <v>6.910714687198581</v>
       </c>
-      <c r="H26" t="n">
-        <v>751.0384463291393</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="I26">
+        <v>769.2543364492797</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
         <v>2024121711</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>496.2062260208145</v>
       </c>
-      <c r="C27" t="n">
-        <v>2.181457665518717</v>
-      </c>
-      <c r="D27" t="n">
+      <c r="C27">
+        <v>9.867770827915926</v>
+      </c>
+      <c r="D27">
         <v>62.07806012520773</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
+        <v>9.612149337995897</v>
+      </c>
+      <c r="F27">
         <v>20.5762310103332</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27">
         <v>132.4921924803085</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27">
         <v>6.219643218478722</v>
       </c>
-      <c r="H27" t="n">
-        <v>719.7538105206614</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="I27">
+        <v>737.0522730210546</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
         <v>2024121712</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>506.5142350140839</v>
       </c>
-      <c r="C28" t="n">
-        <v>1.678044358091321</v>
-      </c>
-      <c r="D28" t="n">
+      <c r="C28">
+        <v>7.590592944550714</v>
+      </c>
+      <c r="D28">
         <v>54.58588045492404</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
+        <v>14.04852595553245</v>
+      </c>
+      <c r="F28">
         <v>17.42580329583242</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28">
         <v>97.29895385272656</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28">
         <v>8.983929093358153</v>
       </c>
-      <c r="H28" t="n">
-        <v>686.4868460690163</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="I28">
+        <v>706.4479206110082</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
         <v>2024121713</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>536.0164676499912</v>
       </c>
-      <c r="C29" t="n">
-        <v>1.510239922282189</v>
-      </c>
-      <c r="D29" t="n">
+      <c r="C29">
+        <v>6.831533650095641</v>
+      </c>
+      <c r="D29">
         <v>79.20304222871329</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
+        <v>18.48490257306903</v>
+      </c>
+      <c r="F29">
         <v>19.88707494778616</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29">
         <v>95.22876334522174</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29">
         <v>8.983929093358153</v>
       </c>
-      <c r="H29" t="n">
-        <v>740.8295171873526</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="I29">
+        <v>764.6357134882352</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
         <v>2024121714</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>470.6139278306291</v>
       </c>
-      <c r="C30" t="n">
-        <v>1.443118147958535</v>
-      </c>
-      <c r="D30" t="n">
+      <c r="C30">
+        <v>6.527909932313612</v>
+      </c>
+      <c r="D30">
         <v>80.27335361018235</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
+        <v>11.83033764676418</v>
+      </c>
+      <c r="F30">
         <v>18.11495935837947</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30">
         <v>55.89514370263016</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30">
         <v>5.528571749758867</v>
       </c>
-      <c r="H30" t="n">
-        <v>631.8690743995385</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="I30">
+        <v>648.7842038306577</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
         <v>2024121715</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>553.4334483627563</v>
       </c>
-      <c r="C31" t="n">
-        <v>1.107509276340272</v>
-      </c>
-      <c r="D31" t="n">
+      <c r="C31">
+        <v>5.009791343403472</v>
+      </c>
+      <c r="D31">
         <v>57.79681459933131</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
+        <v>11.09094154384142</v>
+      </c>
+      <c r="F31">
         <v>17.72115589406687</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31">
         <v>86.94800131520246</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31">
         <v>10.36607203079787</v>
       </c>
-      <c r="H31" t="n">
-        <v>727.3730014784951</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="I31">
+        <v>742.3662250893997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
         <v>2024121716</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>632.3430344491609</v>
       </c>
-      <c r="C32" t="n">
-        <v>1.476679035120362</v>
-      </c>
-      <c r="D32" t="n">
+      <c r="C32">
+        <v>6.679721791204628</v>
+      </c>
+      <c r="D32">
         <v>69.57023979549145</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
+        <v>24.40007139645112</v>
+      </c>
+      <c r="F32">
         <v>17.13045069759798</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32">
         <v>70.38647725516387</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32">
         <v>6.219643218478722</v>
       </c>
-      <c r="H32" t="n">
-        <v>797.1265244510133</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="I32">
+        <v>826.7296386035488</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
         <v>2024121717</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>693.4801912368259</v>
       </c>
-      <c r="C33" t="n">
-        <v>1.107509276340272</v>
-      </c>
-      <c r="D33" t="n">
+      <c r="C33">
+        <v>5.009791343403472</v>
+      </c>
+      <c r="D33">
         <v>52.44525769198584</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
+        <v>41.40618176367462</v>
+      </c>
+      <c r="F33">
         <v>13.9800229830972</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33">
         <v>35.19323862758193</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33">
         <v>4.837500281039007</v>
       </c>
-      <c r="H33" t="n">
-        <v>801.0437200968702</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="I33">
+        <v>846.3521839276079</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
         <v>2024121718</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>723.6933210446834</v>
       </c>
-      <c r="C34" t="n">
-        <v>0.7719004047220076</v>
-      </c>
-      <c r="D34" t="n">
+      <c r="C34">
+        <v>3.491672754493328</v>
+      </c>
+      <c r="D34">
         <v>59.93743736226955</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
+        <v>53.23651941043877</v>
+      </c>
+      <c r="F34">
         <v>9.45128314350233</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34">
         <v>18.63171456754338</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34">
         <v>3.455357343599291</v>
       </c>
-      <c r="H34" t="n">
-        <v>815.94101386632</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="I34">
+        <v>871.8973056265301</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
         <v>2024121719</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>507.5805807720079</v>
       </c>
-      <c r="C35" t="n">
-        <v>0.7047786303983548</v>
-      </c>
-      <c r="D35" t="n">
+      <c r="C35">
+        <v>3.1880490367113</v>
+      </c>
+      <c r="D35">
         <v>49.23432354757855</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
+        <v>39.9273895578291</v>
+      </c>
+      <c r="F35">
         <v>5.513248500376359</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35">
         <v>31.0528576125723</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35">
         <v>3.455357343599291</v>
       </c>
-      <c r="H35" t="n">
-        <v>597.5411464065328</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="I35">
+        <v>639.9518063706747</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
         <v>2024121720</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>449.2870126721412</v>
       </c>
-      <c r="C36" t="n">
-        <v>0.4698524202655698</v>
-      </c>
-      <c r="D36" t="n">
+      <c r="C36">
+        <v>2.1253660244742</v>
+      </c>
+      <c r="D36">
         <v>33.17965282554207</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
+        <v>42.88497396952013</v>
+      </c>
+      <c r="F36">
         <v>4.331838107438569</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36">
         <v>28.98266710506748</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36">
         <v>4.837500281039007</v>
       </c>
-      <c r="H36" t="n">
-        <v>521.0885234114938</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="I36">
+        <v>565.6290109852225</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
         <v>2024121721</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>359.3585204205181</v>
       </c>
-      <c r="C37" t="n">
-        <v>0.4698524202655698</v>
-      </c>
-      <c r="D37" t="n">
+      <c r="C37">
+        <v>2.1253660244742</v>
+      </c>
+      <c r="D37">
         <v>36.39058696994937</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
+        <v>23.66067529352836</v>
+      </c>
+      <c r="F37">
         <v>3.839583777047821</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37">
         <v>18.63171456754338</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37">
         <v>2.764285874879433</v>
       </c>
-      <c r="H37" t="n">
-        <v>421.4545440302036</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="I37">
+        <v>446.7707329279406</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
         <v>2024121722</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>276.5389998883909</v>
       </c>
-      <c r="C38" t="n">
-        <v>0.8054612918838339</v>
-      </c>
-      <c r="D38" t="n">
+      <c r="C38">
+        <v>3.643484613384343</v>
+      </c>
+      <c r="D38">
         <v>21.40622762938198</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
+        <v>11.83033764676418</v>
+      </c>
+      <c r="F38">
         <v>2.85507511626633</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38">
         <v>18.63171456754338</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38">
         <v>1.382142937439717</v>
       </c>
-      <c r="H38" t="n">
-        <v>321.6196214309061</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="I38">
+        <v>336.2879823991708</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
         <v>2024121723</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>172.7480127837505</v>
       </c>
-      <c r="C39" t="n">
-        <v>0.6376568560747018</v>
-      </c>
-      <c r="D39" t="n">
+      <c r="C39">
+        <v>2.884425318929271</v>
+      </c>
+      <c r="D39">
         <v>14.98435934056739</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
+        <v>5.175772720459328</v>
+      </c>
+      <c r="F39">
         <v>1.476762991172239</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39">
         <v>12.42114304502892</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39">
         <v>0.6910714687198584</v>
       </c>
-      <c r="H39" t="n">
-        <v>202.9590064853136</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="I39">
+        <v>210.3815476686275</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
         <v>2024121800</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>131.1605282246995</v>
       </c>
-      <c r="C40" t="n">
-        <v>1.375996373634883</v>
-      </c>
-      <c r="D40" t="n">
+      <c r="C40">
+        <v>6.224286214531584</v>
+      </c>
+      <c r="D40">
         <v>11.77342519616009</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
+        <v>2.957584411691045</v>
+      </c>
+      <c r="F40">
         <v>1.37831212509409</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40">
         <v>22.77209558255304</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40">
         <v>1.382142937439717</v>
       </c>
-      <c r="H40" t="n">
-        <v>169.8425004395813</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="I40">
+        <v>177.6483746921691</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
         <v>2024121801</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>93.83842669734597</v>
       </c>
-      <c r="C41" t="n">
-        <v>1.040387502016619</v>
-      </c>
-      <c r="D41" t="n">
+      <c r="C41">
+        <v>4.706167625621442</v>
+      </c>
+      <c r="D41">
         <v>7.492179670283694</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
+        <v>0.7393961029227613</v>
+      </c>
+      <c r="F41">
         <v>2.461271651953732</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41">
         <v>22.77209558255304</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41">
         <v>0.6910714687198584</v>
       </c>
-      <c r="H41" t="n">
-        <v>128.2954325728729</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="I41">
+        <v>132.7006087994005</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
         <v>2024121802</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>69.3124742650851</v>
       </c>
-      <c r="C42" t="n">
-        <v>0.6040959689128756</v>
-      </c>
-      <c r="D42" t="n">
+      <c r="C42">
+        <v>2.732613460038256</v>
+      </c>
+      <c r="D42">
         <v>11.77342519616009</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
+        <v>1.478792205845523</v>
+      </c>
+      <c r="F42">
         <v>1.279861259015941</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42">
         <v>20.70190507504821</v>
       </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="n">
-        <v>103.6717617642222</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="I42">
+        <v>107.2790714611931</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
         <v>2024121803</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>54.3836336541437</v>
       </c>
-      <c r="C43" t="n">
-        <v>0.5369741945892226</v>
-      </c>
-      <c r="D43" t="n">
+      <c r="C43">
+        <v>2.428989742256228</v>
+      </c>
+      <c r="D43">
         <v>11.77342519616009</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
+        <v>1.478792205845523</v>
+      </c>
+      <c r="F43">
         <v>1.575213857250389</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43">
         <v>28.98266710506748</v>
       </c>
-      <c r="G43" t="n">
+      <c r="H43">
         <v>0.6910714687198584</v>
       </c>
-      <c r="H43" t="n">
-        <v>97.94298547593073</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="I43">
+        <v>101.3137932294433</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
         <v>2024121804</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>89.57304366564841</v>
       </c>
-      <c r="C44" t="n">
-        <v>0.4362915331037434</v>
-      </c>
-      <c r="D44" t="n">
+      <c r="C44">
+        <v>1.973554165583186</v>
+      </c>
+      <c r="D44">
         <v>12.84373657762919</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
+        <v>2.218188308768283</v>
+      </c>
+      <c r="F44">
         <v>4.331838107438569</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44">
         <v>28.98266710506748</v>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="n">
-        <v>136.1675769888874</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="I44">
+        <v>139.9230279301351</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
         <v>2024121805</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>212.9137029989025</v>
       </c>
-      <c r="C45" t="n">
-        <v>0.3691697587800905</v>
-      </c>
-      <c r="D45" t="n">
+      <c r="C45">
+        <v>1.669930447801157</v>
+      </c>
+      <c r="D45">
         <v>20.33591624791288</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
+        <v>23.66067529352836</v>
+      </c>
+      <c r="F45">
         <v>9.45128314350233</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45">
         <v>62.1057152251446</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45">
         <v>1.382142937439717</v>
       </c>
-      <c r="H45" t="n">
-        <v>306.5579303116821</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="I45">
+        <v>331.5193662942315</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
         <v>2024121806</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>389.2162016424008</v>
       </c>
-      <c r="C46" t="n">
-        <v>0.3691697587800905</v>
-      </c>
-      <c r="D46" t="n">
+      <c r="C46">
+        <v>1.669930447801157</v>
+      </c>
+      <c r="D46">
         <v>43.88276664023304</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
+        <v>72.46081808643056</v>
+      </c>
+      <c r="F46">
         <v>12.01100566153421</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46">
         <v>122.1412399427844</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46">
         <v>2.764285874879433</v>
       </c>
-      <c r="H46" t="n">
-        <v>570.3846695206121</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="I46">
+        <v>644.1462482960636</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
         <v>2024121807</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>531.3956360323191</v>
       </c>
-      <c r="C47" t="n">
-        <v>0.5705350817510491</v>
-      </c>
-      <c r="D47" t="n">
+      <c r="C47">
+        <v>2.580801601147243</v>
+      </c>
+      <c r="D47">
         <v>55.65619183639315</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
+        <v>57.67289602797537</v>
+      </c>
+      <c r="F47">
         <v>12.50325999192496</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47">
         <v>99.36914436023135</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47">
         <v>4.837500281039007</v>
       </c>
-      <c r="H47" t="n">
-        <v>704.3322675836586</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="I47">
+        <v>764.0154301310301</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
         <v>2024121808</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>586.4901668584124</v>
       </c>
-      <c r="C48" t="n">
-        <v>0.8390221790456605</v>
-      </c>
-      <c r="D48" t="n">
+      <c r="C48">
+        <v>3.795296472275357</v>
+      </c>
+      <c r="D48">
         <v>64.21868288814596</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
+        <v>29.57584411691044</v>
+      </c>
+      <c r="F48">
         <v>15.45678597426944</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48">
         <v>103.509525375241</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48">
         <v>6.219643218478722</v>
       </c>
-      <c r="H48" t="n">
-        <v>776.7338264935931</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="I48">
+        <v>809.2659449037333</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
         <v>2024121809</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>493.3626373330162</v>
       </c>
-      <c r="C49" t="n">
-        <v>1.644483470929494</v>
-      </c>
-      <c r="D49" t="n">
+      <c r="C49">
+        <v>7.438781085659699</v>
+      </c>
+      <c r="D49">
         <v>72.78117393989874</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
+        <v>19.96369477891455</v>
+      </c>
+      <c r="F49">
         <v>19.00101715308281</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49">
         <v>138.702764002823</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49">
         <v>2.764285874879433</v>
       </c>
-      <c r="H49" t="n">
-        <v>728.2563617746297</v>
+      <c r="I49">
+        <v>754.0143541682745</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/경기대로_겨울_배출량/경기대로_겨울_배출량_CO.xlsx
+++ b/output/경기대로_겨울_배출량/경기대로_겨울_배출량_CO.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>491.2299458171671</v>
+        <v>712.0698431975806</v>
       </c>
       <c r="C2">
-        <v>9.867770827915926</v>
+        <v>14.30397736533553</v>
       </c>
       <c r="D2">
-        <v>77.06241946577514</v>
+        <v>111.7070028256062</v>
       </c>
       <c r="E2">
-        <v>11.83033764676418</v>
+        <v>17.14884596274425</v>
       </c>
       <c r="F2">
-        <v>23.23440439444323</v>
+        <v>33.67978445698857</v>
       </c>
       <c r="G2">
-        <v>120.0710494352796</v>
+        <v>174.0508168770531</v>
       </c>
       <c r="H2">
-        <v>5.528571749758867</v>
+        <v>8.014025310302634</v>
       </c>
       <c r="I2">
-        <v>738.824499337104</v>
+        <v>1070.974295995611</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>510.779618045781</v>
+        <v>740.4083680715802</v>
       </c>
       <c r="C3">
-        <v>8.653275956787812</v>
+        <v>12.54348784344807</v>
       </c>
       <c r="D3">
-        <v>70.64055117696053</v>
+        <v>102.3980859234724</v>
       </c>
       <c r="E3">
-        <v>11.83033764676418</v>
+        <v>17.14884596274425</v>
       </c>
       <c r="F3">
-        <v>18.21341022445762</v>
+        <v>26.40152595145291</v>
       </c>
       <c r="G3">
-        <v>103.509525375241</v>
+        <v>150.043807652632</v>
       </c>
       <c r="H3">
-        <v>7.601786155918439</v>
+        <v>11.01928480166612</v>
       </c>
       <c r="I3">
-        <v>731.2285045819108</v>
+        <v>1059.963406206996</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>538.5046077518152</v>
+        <v>780.597548801979</v>
       </c>
       <c r="C4">
-        <v>9.260523392351869</v>
+        <v>13.4237326043918</v>
       </c>
       <c r="D4">
-        <v>69.57023979549145</v>
+        <v>100.8465997731167</v>
       </c>
       <c r="E4">
-        <v>11.09094154384142</v>
+        <v>16.07704309007273</v>
       </c>
       <c r="F4">
-        <v>20.5762310103332</v>
+        <v>29.82658877758734</v>
       </c>
       <c r="G4">
-        <v>93.15857283771693</v>
+        <v>135.0394268873688</v>
       </c>
       <c r="H4">
-        <v>6.910714687198581</v>
+        <v>10.01753163787829</v>
       </c>
       <c r="I4">
-        <v>749.0718310187488</v>
+        <v>1085.828471572395</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>535.6610190640167</v>
+        <v>776.4755815475792</v>
       </c>
       <c r="C5">
-        <v>6.831533650095641</v>
+        <v>9.902753560616901</v>
       </c>
       <c r="D5">
-        <v>64.21868288814596</v>
+        <v>93.08916902133853</v>
       </c>
       <c r="E5">
-        <v>11.09094154384142</v>
+        <v>16.07704309007273</v>
       </c>
       <c r="F5">
-        <v>20.77313274248949</v>
+        <v>30.11201067976521</v>
       </c>
       <c r="G5">
-        <v>70.38647725516387</v>
+        <v>102.0297892037898</v>
       </c>
       <c r="H5">
-        <v>5.528571749758867</v>
+        <v>8.014025310302634</v>
       </c>
       <c r="I5">
-        <v>714.4903588935118</v>
+        <v>1035.700372413465</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>553.7888969487312</v>
+        <v>802.7531227943783</v>
       </c>
       <c r="C6">
-        <v>8.197840380114769</v>
+        <v>11.88330427274028</v>
       </c>
       <c r="D6">
-        <v>75.99210808430607</v>
+        <v>110.1555166752506</v>
       </c>
       <c r="E6">
-        <v>14.04852595553245</v>
+        <v>20.36425458075879</v>
       </c>
       <c r="F6">
-        <v>17.81960676014502</v>
+        <v>25.83068214709717</v>
       </c>
       <c r="G6">
-        <v>74.52685827017352</v>
+        <v>108.031541509895</v>
       </c>
       <c r="H6">
-        <v>4.146428812319149</v>
+        <v>6.010518982726974</v>
       </c>
       <c r="I6">
-        <v>748.5202652113222</v>
+        <v>1085.028940962847</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>565.1632516999247</v>
+        <v>819.2409918119777</v>
       </c>
       <c r="C7">
-        <v>7.13515736787767</v>
+        <v>10.34287594108876</v>
       </c>
       <c r="D7">
-        <v>79.20304222871329</v>
+        <v>114.8099751263175</v>
       </c>
       <c r="E7">
-        <v>13.30912985260969</v>
+        <v>19.29245170808727</v>
       </c>
       <c r="F7">
-        <v>15.65368770642573</v>
+        <v>22.69104122314062</v>
       </c>
       <c r="G7">
-        <v>60.0355247176398</v>
+        <v>87.02540843852657</v>
       </c>
       <c r="H7">
-        <v>8.983929093358153</v>
+        <v>13.02279112924177</v>
       </c>
       <c r="I7">
-        <v>749.4837226665489</v>
+        <v>1086.42553537838</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>619.1914367680935</v>
+        <v>897.5583696455753</v>
       </c>
       <c r="C8">
-        <v>7.894216662332743</v>
+        <v>11.44318189226842</v>
       </c>
       <c r="D8">
-        <v>74.92179670283699</v>
+        <v>108.6040305248949</v>
       </c>
       <c r="E8">
-        <v>25.13946749937387</v>
+        <v>36.44129767083152</v>
       </c>
       <c r="F8">
-        <v>17.03199983151983</v>
+        <v>24.68899453838569</v>
       </c>
       <c r="G8">
-        <v>39.33361964259161</v>
+        <v>57.01664690800015</v>
       </c>
       <c r="H8">
-        <v>7.601786155918439</v>
+        <v>11.01928480166612</v>
       </c>
       <c r="I8">
-        <v>791.114323262667</v>
+        <v>1146.771805981622</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>683.172182243557</v>
+        <v>990.3026328695739</v>
       </c>
       <c r="C9">
-        <v>6.679721791204628</v>
+        <v>9.682692370380968</v>
       </c>
       <c r="D9">
-        <v>71.71086255842964</v>
+        <v>103.9495720738281</v>
       </c>
       <c r="E9">
-        <v>45.8425583812112</v>
+        <v>66.45177810563395</v>
       </c>
       <c r="F9">
-        <v>15.94904030466018</v>
+        <v>23.11917407640741</v>
       </c>
       <c r="G9">
-        <v>39.33361964259161</v>
+        <v>57.01664690800015</v>
       </c>
       <c r="H9">
-        <v>4.837500281039007</v>
+        <v>7.012272146514803</v>
       </c>
       <c r="I9">
-        <v>867.5254852026934</v>
+        <v>1257.53476855034</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>656.5135382954471</v>
+        <v>951.6591898595741</v>
       </c>
       <c r="C10">
-        <v>7.590592944550714</v>
+        <v>11.00305951179656</v>
       </c>
       <c r="D10">
-        <v>88.83584466193518</v>
+        <v>128.7733504795183</v>
       </c>
       <c r="E10">
-        <v>55.45470771920706</v>
+        <v>80.38521545036366</v>
       </c>
       <c r="F10">
-        <v>8.56522534879899</v>
+        <v>12.41585274473732</v>
       </c>
       <c r="G10">
-        <v>28.98266710506748</v>
+        <v>42.01226614273694</v>
       </c>
       <c r="H10">
-        <v>2.073214406159575</v>
+        <v>3.005259491363487</v>
       </c>
       <c r="I10">
-        <v>848.0157904811661</v>
+        <v>1229.25419368009</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>474.8793108623266</v>
+        <v>688.3685314847814</v>
       </c>
       <c r="C11">
-        <v>6.224286214531584</v>
+        <v>9.022508799673176</v>
       </c>
       <c r="D11">
-        <v>63.14837150667684</v>
+        <v>91.53768287098285</v>
       </c>
       <c r="E11">
-        <v>44.36376617536567</v>
+        <v>64.30817236029092</v>
       </c>
       <c r="F11">
-        <v>4.430288973516717</v>
+        <v>6.42199279900206</v>
       </c>
       <c r="G11">
-        <v>24.84228609005784</v>
+        <v>36.01051383663167</v>
       </c>
       <c r="H11">
-        <v>2.073214406159575</v>
+        <v>3.005259491363487</v>
       </c>
       <c r="I11">
-        <v>619.9615242286347</v>
+        <v>898.6746616427257</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>397.0360705338466</v>
+        <v>575.5296778955844</v>
       </c>
       <c r="C12">
-        <v>6.831533650095641</v>
+        <v>9.902753560616901</v>
       </c>
       <c r="D12">
-        <v>55.65619183639315</v>
+        <v>80.67727981849343</v>
       </c>
       <c r="E12">
-        <v>34.75161683736977</v>
+        <v>50.37473501556123</v>
       </c>
       <c r="F12">
-        <v>3.93803464312597</v>
+        <v>5.708438043557386</v>
       </c>
       <c r="G12">
-        <v>31.0528576125723</v>
+        <v>45.0131422957896</v>
       </c>
       <c r="H12">
-        <v>2.764285874879433</v>
+        <v>4.007012655151317</v>
       </c>
       <c r="I12">
-        <v>532.0305909882828</v>
+        <v>771.2130392847544</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>327.7235962687614</v>
+        <v>475.0567260695871</v>
       </c>
       <c r="C13">
-        <v>4.554355766730428</v>
+        <v>6.601835707077932</v>
       </c>
       <c r="D13">
-        <v>44.95307802170218</v>
+        <v>65.16241831493696</v>
       </c>
       <c r="E13">
-        <v>25.87886360229663</v>
+        <v>37.51310054350304</v>
       </c>
       <c r="F13">
-        <v>1.969017321562985</v>
+        <v>2.854219021778693</v>
       </c>
       <c r="G13">
-        <v>14.49133355253374</v>
+        <v>21.00613307136847</v>
       </c>
       <c r="H13">
-        <v>1.382142937439717</v>
+        <v>2.003506327575658</v>
       </c>
       <c r="I13">
-        <v>420.9523874710271</v>
+        <v>610.1979390558279</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>250.9467016982054</v>
+        <v>363.7636102007903</v>
       </c>
       <c r="C14">
-        <v>4.098920190057385</v>
+        <v>5.94165213637014</v>
       </c>
       <c r="D14">
-        <v>23.54685039232017</v>
+        <v>34.1326953078241</v>
       </c>
       <c r="E14">
-        <v>11.83033764676418</v>
+        <v>17.14884596274425</v>
       </c>
       <c r="F14">
-        <v>2.461271651953732</v>
+        <v>3.567773777223366</v>
       </c>
       <c r="G14">
-        <v>10.3509525375241</v>
+        <v>15.0043807652632</v>
       </c>
       <c r="H14">
-        <v>2.073214406159575</v>
+        <v>3.005259491363487</v>
       </c>
       <c r="I14">
-        <v>305.3082485229846</v>
+        <v>442.5642176415788</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>147.5111631795401</v>
+        <v>213.8270513219941</v>
       </c>
       <c r="C15">
-        <v>1.821742306692172</v>
+        <v>2.640734282831173</v>
       </c>
       <c r="D15">
-        <v>12.84373657762919</v>
+        <v>18.61783380426771</v>
       </c>
       <c r="E15">
-        <v>7.39396102922761</v>
+        <v>10.71802872671516</v>
       </c>
       <c r="F15">
-        <v>1.969017321562985</v>
+        <v>2.854219021778693</v>
       </c>
       <c r="G15">
-        <v>14.49133355253374</v>
+        <v>21.00613307136847</v>
       </c>
       <c r="H15">
-        <v>0.6910714687198584</v>
+        <v>1.001753163787829</v>
       </c>
       <c r="I15">
-        <v>186.7220254359056</v>
+        <v>270.6657533927432</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>118.7198277155817</v>
+        <v>172.0921328711954</v>
       </c>
       <c r="C16">
-        <v>3.491672754493328</v>
+        <v>5.061407375426417</v>
       </c>
       <c r="D16">
-        <v>14.98435934056739</v>
+        <v>21.72080610497899</v>
       </c>
       <c r="E16">
-        <v>2.218188308768283</v>
+        <v>3.215408618014545</v>
       </c>
       <c r="F16">
-        <v>1.082959526859642</v>
+        <v>1.569820461978281</v>
       </c>
       <c r="G16">
-        <v>16.56152406003856</v>
+        <v>24.00700922442111</v>
       </c>
       <c r="H16">
-        <v>0.6910714687198584</v>
+        <v>1.001753163787829</v>
       </c>
       <c r="I16">
-        <v>157.7496031750287</v>
+        <v>228.6683378198026</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,25 +873,25 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>75.35510022665665</v>
+        <v>109.232132241597</v>
       </c>
       <c r="C17">
-        <v>4.706167625621442</v>
+        <v>6.821896897313867</v>
       </c>
       <c r="D17">
-        <v>7.492179670283694</v>
+        <v>10.86040305248949</v>
       </c>
       <c r="E17">
-        <v>0.7393961029227613</v>
+        <v>1.071802872671516</v>
       </c>
       <c r="F17">
-        <v>2.264369919797433</v>
+        <v>3.282351875045497</v>
       </c>
       <c r="G17">
-        <v>16.56152406003856</v>
+        <v>24.00700922442111</v>
       </c>
       <c r="I17">
-        <v>107.1187376053205</v>
+        <v>155.2755961635385</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,25 +899,25 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>51.54004496634531</v>
+        <v>74.710656485998</v>
       </c>
       <c r="C18">
-        <v>4.098920190057385</v>
+        <v>5.94165213637014</v>
       </c>
       <c r="D18">
-        <v>7.492179670283694</v>
+        <v>10.86040305248949</v>
       </c>
       <c r="E18">
-        <v>0.7393961029227613</v>
+        <v>1.071802872671516</v>
       </c>
       <c r="F18">
-        <v>1.181410392937791</v>
+        <v>1.712531413067215</v>
       </c>
       <c r="G18">
-        <v>22.77209558255304</v>
+        <v>33.00963768357904</v>
       </c>
       <c r="I18">
-        <v>87.82404690509996</v>
+        <v>127.3066836441754</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -925,25 +925,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>53.31728789621931</v>
+        <v>77.28688601999787</v>
       </c>
       <c r="C19">
-        <v>3.491672754493328</v>
+        <v>5.061407375426417</v>
       </c>
       <c r="D19">
-        <v>10.70311381469099</v>
+        <v>15.51486150355642</v>
       </c>
       <c r="E19">
-        <v>3.696980514613805</v>
+        <v>5.359014363357579</v>
       </c>
       <c r="F19">
-        <v>2.067468187641134</v>
+        <v>2.996929972867628</v>
       </c>
       <c r="G19">
-        <v>18.63171456754338</v>
+        <v>27.00788537747375</v>
       </c>
       <c r="I19">
-        <v>91.90823773520195</v>
+        <v>133.2269846126796</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -951,25 +951,25 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>91.35028659552241</v>
+        <v>132.4181980475964</v>
       </c>
       <c r="C20">
-        <v>2.1253660244742</v>
+        <v>3.080856663303035</v>
       </c>
       <c r="D20">
-        <v>16.05467072203649</v>
+        <v>23.27229225533463</v>
       </c>
       <c r="E20">
-        <v>2.218188308768283</v>
+        <v>3.215408618014545</v>
       </c>
       <c r="F20">
-        <v>4.134936375282268</v>
+        <v>5.993859945735257</v>
       </c>
       <c r="G20">
-        <v>22.77209558255304</v>
+        <v>33.00963768357904</v>
       </c>
       <c r="I20">
-        <v>138.6555436086367</v>
+        <v>200.9902532135629</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -977,28 +977,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>211.847357240978</v>
+        <v>307.0865604527917</v>
       </c>
       <c r="C21">
-        <v>1.821742306692172</v>
+        <v>2.640734282831173</v>
       </c>
       <c r="D21">
-        <v>37.46089835141849</v>
+        <v>54.30201526244745</v>
       </c>
       <c r="E21">
-        <v>28.09705191106491</v>
+        <v>40.72850916151759</v>
       </c>
       <c r="F21">
-        <v>7.088462357626748</v>
+        <v>10.27518847840329</v>
       </c>
       <c r="G21">
-        <v>60.0355247176398</v>
+        <v>87.02540843852657</v>
       </c>
       <c r="H21">
-        <v>0.6910714687198584</v>
+        <v>1.001753163787829</v>
       </c>
       <c r="I21">
-        <v>347.0421083541399</v>
+        <v>503.0601692403055</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1006,28 +1006,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>377.130949719258</v>
+        <v>546.6759071147856</v>
       </c>
       <c r="C22">
-        <v>6.07247435564057</v>
+        <v>8.802447609437245</v>
       </c>
       <c r="D22">
-        <v>67.42961703255328</v>
+        <v>97.74362747240546</v>
       </c>
       <c r="E22">
-        <v>72.46081808643056</v>
+        <v>105.0366815218085</v>
       </c>
       <c r="F22">
-        <v>11.81410392937791</v>
+        <v>17.12531413067216</v>
       </c>
       <c r="G22">
-        <v>93.15857283771693</v>
+        <v>135.0394268873688</v>
       </c>
       <c r="H22">
-        <v>3.455357343599291</v>
+        <v>5.008765818939146</v>
       </c>
       <c r="I22">
-        <v>631.5218933045766</v>
+        <v>915.4321705554169</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1035,28 +1035,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>522.153972796974</v>
+        <v>756.8962370891792</v>
       </c>
       <c r="C23">
-        <v>3.036237177820285</v>
+        <v>4.401223804718622</v>
       </c>
       <c r="D23">
-        <v>44.95307802170218</v>
+        <v>65.16241831493696</v>
       </c>
       <c r="E23">
-        <v>60.63048043966642</v>
+        <v>87.88783555906427</v>
       </c>
       <c r="F23">
-        <v>13.9800229830972</v>
+        <v>20.26495505462873</v>
       </c>
       <c r="G23">
-        <v>84.8778108076976</v>
+        <v>123.0359222751582</v>
       </c>
       <c r="H23">
-        <v>6.910714687198581</v>
+        <v>10.01753163787829</v>
       </c>
       <c r="I23">
-        <v>736.5423169141563</v>
+        <v>1067.666123735564</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1064,28 +1064,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>611.0161192906737</v>
+        <v>885.7077137891758</v>
       </c>
       <c r="C24">
-        <v>3.643484613384343</v>
+        <v>5.281468565662347</v>
       </c>
       <c r="D24">
-        <v>55.65619183639315</v>
+        <v>80.67727981849343</v>
       </c>
       <c r="E24">
-        <v>26.61825970521939</v>
+        <v>38.58490341617455</v>
       </c>
       <c r="F24">
-        <v>14.86608077780054</v>
+        <v>21.54935361442913</v>
       </c>
       <c r="G24">
-        <v>118.0008589277747</v>
+        <v>171.0499407240005</v>
       </c>
       <c r="H24">
-        <v>5.528571749758867</v>
+        <v>8.014025310302634</v>
       </c>
       <c r="I24">
-        <v>835.3295669010048</v>
+        <v>1210.864685238239</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1093,28 +1093,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>493.3626373330162</v>
+        <v>715.1613186383807</v>
       </c>
       <c r="C25">
-        <v>7.438781085659699</v>
+        <v>10.78299832156063</v>
       </c>
       <c r="D25">
-        <v>72.78117393989874</v>
+        <v>105.5010582241837</v>
       </c>
       <c r="E25">
-        <v>19.96369477891455</v>
+        <v>28.93867756213092</v>
       </c>
       <c r="F25">
-        <v>19.00101715308281</v>
+        <v>27.54321356016439</v>
       </c>
       <c r="G25">
-        <v>138.702764002823</v>
+        <v>201.0587022545268</v>
       </c>
       <c r="H25">
-        <v>2.764285874879433</v>
+        <v>4.007012655151317</v>
       </c>
       <c r="I25">
-        <v>754.0143541682745</v>
+        <v>1092.992981216099</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1122,28 +1122,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>505.0924406701842</v>
+        <v>732.1644335627802</v>
       </c>
       <c r="C26">
-        <v>8.197840380114769</v>
+        <v>11.88330427274028</v>
       </c>
       <c r="D26">
-        <v>69.57023979549145</v>
+        <v>100.8465997731167</v>
       </c>
       <c r="E26">
-        <v>11.83033764676418</v>
+        <v>17.14884596274425</v>
       </c>
       <c r="F26">
-        <v>24.80961825169362</v>
+        <v>35.96315967441153</v>
       </c>
       <c r="G26">
-        <v>142.8431450178327</v>
+        <v>207.0604545606321</v>
       </c>
       <c r="H26">
-        <v>6.910714687198581</v>
+        <v>10.01753163787829</v>
       </c>
       <c r="I26">
-        <v>769.2543364492797</v>
+        <v>1115.084329444303</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1151,28 +1151,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>496.2062260208145</v>
+        <v>719.2832858927803</v>
       </c>
       <c r="C27">
-        <v>9.867770827915926</v>
+        <v>14.30397736533553</v>
       </c>
       <c r="D27">
-        <v>62.07806012520773</v>
+        <v>89.98619672062723</v>
       </c>
       <c r="E27">
-        <v>9.612149337995897</v>
+        <v>13.9334373447297</v>
       </c>
       <c r="F27">
-        <v>20.5762310103332</v>
+        <v>29.82658877758734</v>
       </c>
       <c r="G27">
-        <v>132.4921924803085</v>
+        <v>192.0560737953689</v>
       </c>
       <c r="H27">
-        <v>6.219643218478722</v>
+        <v>9.01577847409046</v>
       </c>
       <c r="I27">
-        <v>737.0522730210546</v>
+        <v>1068.40533837052</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1180,28 +1180,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>506.5142350140839</v>
+        <v>734.2254171899804</v>
       </c>
       <c r="C28">
-        <v>7.590592944550714</v>
+        <v>11.00305951179656</v>
       </c>
       <c r="D28">
-        <v>54.58588045492404</v>
+        <v>79.12579366813773</v>
       </c>
       <c r="E28">
-        <v>14.04852595553245</v>
+        <v>20.36425458075879</v>
       </c>
       <c r="F28">
-        <v>17.42580329583242</v>
+        <v>25.25983834274142</v>
       </c>
       <c r="G28">
-        <v>97.29895385272656</v>
+        <v>141.0411791934741</v>
       </c>
       <c r="H28">
-        <v>8.983929093358153</v>
+        <v>13.02279112924177</v>
       </c>
       <c r="I28">
-        <v>706.4479206110082</v>
+        <v>1024.042333616131</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1209,28 +1209,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>536.0164676499912</v>
+        <v>776.9908274543789</v>
       </c>
       <c r="C29">
-        <v>6.831533650095641</v>
+        <v>9.902753560616901</v>
       </c>
       <c r="D29">
-        <v>79.20304222871329</v>
+        <v>114.8099751263175</v>
       </c>
       <c r="E29">
-        <v>18.48490257306903</v>
+        <v>26.79507181678788</v>
       </c>
       <c r="F29">
-        <v>19.88707494778616</v>
+        <v>28.8276121199648</v>
       </c>
       <c r="G29">
-        <v>95.22876334522174</v>
+        <v>138.0403030404215</v>
       </c>
       <c r="H29">
-        <v>8.983929093358153</v>
+        <v>13.02279112924177</v>
       </c>
       <c r="I29">
-        <v>764.6357134882352</v>
+        <v>1108.389334247729</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1238,28 +1238,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>470.6139278306291</v>
+        <v>682.1855806031813</v>
       </c>
       <c r="C30">
-        <v>6.527909932313612</v>
+        <v>9.462631180145038</v>
       </c>
       <c r="D30">
-        <v>80.27335361018235</v>
+        <v>116.3614612766732</v>
       </c>
       <c r="E30">
-        <v>11.83033764676418</v>
+        <v>17.14884596274425</v>
       </c>
       <c r="F30">
-        <v>18.11495935837947</v>
+        <v>26.25881500036398</v>
       </c>
       <c r="G30">
-        <v>55.89514370263016</v>
+        <v>81.02365613242128</v>
       </c>
       <c r="H30">
-        <v>5.528571749758867</v>
+        <v>8.014025310302634</v>
       </c>
       <c r="I30">
-        <v>648.7842038306577</v>
+        <v>940.4550154658316</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1267,28 +1267,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>553.4334483627563</v>
+        <v>802.2378768875782</v>
       </c>
       <c r="C31">
-        <v>5.009791343403472</v>
+        <v>7.262019277785725</v>
       </c>
       <c r="D31">
-        <v>57.79681459933131</v>
+        <v>83.78025211920468</v>
       </c>
       <c r="E31">
-        <v>11.09094154384142</v>
+        <v>16.07704309007273</v>
       </c>
       <c r="F31">
-        <v>17.72115589406687</v>
+        <v>25.68797119600824</v>
       </c>
       <c r="G31">
-        <v>86.94800131520246</v>
+        <v>126.0367984282109</v>
       </c>
       <c r="H31">
-        <v>10.36607203079787</v>
+        <v>15.02629745681744</v>
       </c>
       <c r="I31">
-        <v>742.3662250893997</v>
+        <v>1076.108258455678</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1296,28 +1296,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>632.3430344491609</v>
+        <v>916.6224681971751</v>
       </c>
       <c r="C32">
-        <v>6.679721791204628</v>
+        <v>9.682692370380968</v>
       </c>
       <c r="D32">
-        <v>69.57023979549145</v>
+        <v>100.8465997731167</v>
       </c>
       <c r="E32">
-        <v>24.40007139645112</v>
+        <v>35.36949479816003</v>
       </c>
       <c r="F32">
-        <v>17.13045069759798</v>
+        <v>24.83170548947463</v>
       </c>
       <c r="G32">
-        <v>70.38647725516387</v>
+        <v>102.0297892037898</v>
       </c>
       <c r="H32">
-        <v>6.219643218478722</v>
+        <v>9.01577847409046</v>
       </c>
       <c r="I32">
-        <v>826.7296386035488</v>
+        <v>1198.398528306188</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1325,28 +1325,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>693.4801912368259</v>
+        <v>1005.244764166773</v>
       </c>
       <c r="C33">
-        <v>5.009791343403472</v>
+        <v>7.262019277785725</v>
       </c>
       <c r="D33">
-        <v>52.44525769198584</v>
+        <v>76.02282136742646</v>
       </c>
       <c r="E33">
-        <v>41.40618176367462</v>
+        <v>60.02096086960488</v>
       </c>
       <c r="F33">
-        <v>13.9800229830972</v>
+        <v>20.26495505462873</v>
       </c>
       <c r="G33">
-        <v>35.19323862758193</v>
+        <v>51.01489460189488</v>
       </c>
       <c r="H33">
-        <v>4.837500281039007</v>
+        <v>7.012272146514803</v>
       </c>
       <c r="I33">
-        <v>846.3521839276079</v>
+        <v>1226.842687484629</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1354,28 +1354,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>723.6933210446834</v>
+        <v>1049.040666244771</v>
       </c>
       <c r="C34">
-        <v>3.491672754493328</v>
+        <v>5.061407375426417</v>
       </c>
       <c r="D34">
-        <v>59.93743736226955</v>
+        <v>86.88322441991595</v>
       </c>
       <c r="E34">
-        <v>53.23651941043877</v>
+        <v>77.1698068323491</v>
       </c>
       <c r="F34">
-        <v>9.45128314350233</v>
+        <v>13.70025130453772</v>
       </c>
       <c r="G34">
-        <v>18.63171456754338</v>
+        <v>27.00788537747375</v>
       </c>
       <c r="H34">
-        <v>3.455357343599291</v>
+        <v>5.008765818939146</v>
       </c>
       <c r="I34">
-        <v>871.8973056265301</v>
+        <v>1263.872007373413</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1383,28 +1383,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>507.5805807720079</v>
+        <v>735.7711549103801</v>
       </c>
       <c r="C35">
-        <v>3.1880490367113</v>
+        <v>4.621284994954554</v>
       </c>
       <c r="D35">
-        <v>49.23432354757855</v>
+        <v>71.36836291635952</v>
       </c>
       <c r="E35">
-        <v>39.9273895578291</v>
+        <v>57.87735512426183</v>
       </c>
       <c r="F35">
-        <v>5.513248500376359</v>
+        <v>7.991813260980341</v>
       </c>
       <c r="G35">
-        <v>31.0528576125723</v>
+        <v>45.0131422957896</v>
       </c>
       <c r="H35">
-        <v>3.455357343599291</v>
+        <v>5.008765818939146</v>
       </c>
       <c r="I35">
-        <v>639.9518063706747</v>
+        <v>927.6518793216652</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1412,28 +1412,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>449.2870126721412</v>
+        <v>651.2708261951821</v>
       </c>
       <c r="C36">
-        <v>2.1253660244742</v>
+        <v>3.080856663303035</v>
       </c>
       <c r="D36">
-        <v>33.17965282554207</v>
+        <v>48.09607066102492</v>
       </c>
       <c r="E36">
-        <v>42.88497396952013</v>
+        <v>62.16456661494789</v>
       </c>
       <c r="F36">
-        <v>4.331838107438569</v>
+        <v>6.279281847913126</v>
       </c>
       <c r="G36">
-        <v>28.98266710506748</v>
+        <v>42.01226614273694</v>
       </c>
       <c r="H36">
-        <v>4.837500281039007</v>
+        <v>7.012272146514803</v>
       </c>
       <c r="I36">
-        <v>565.6290109852225</v>
+        <v>819.9161402716228</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1441,28 +1441,28 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>359.3585204205181</v>
+        <v>520.9136117747855</v>
       </c>
       <c r="C37">
-        <v>2.1253660244742</v>
+        <v>3.080856663303035</v>
       </c>
       <c r="D37">
-        <v>36.39058696994937</v>
+        <v>52.75052911209183</v>
       </c>
       <c r="E37">
-        <v>23.66067529352836</v>
+        <v>34.2976919254885</v>
       </c>
       <c r="F37">
-        <v>3.839583777047821</v>
+        <v>5.565727092468449</v>
       </c>
       <c r="G37">
-        <v>18.63171456754338</v>
+        <v>27.00788537747375</v>
       </c>
       <c r="H37">
-        <v>2.764285874879433</v>
+        <v>4.007012655151317</v>
       </c>
       <c r="I37">
-        <v>446.7707329279406</v>
+        <v>647.6233146007625</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1470,28 +1470,28 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>276.5389998883909</v>
+        <v>400.861315490389</v>
       </c>
       <c r="C38">
-        <v>3.643484613384343</v>
+        <v>5.281468565662347</v>
       </c>
       <c r="D38">
-        <v>21.40622762938198</v>
+        <v>31.02972300711284</v>
       </c>
       <c r="E38">
-        <v>11.83033764676418</v>
+        <v>17.14884596274425</v>
       </c>
       <c r="F38">
-        <v>2.85507511626633</v>
+        <v>4.138617581579103</v>
       </c>
       <c r="G38">
-        <v>18.63171456754338</v>
+        <v>27.00788537747375</v>
       </c>
       <c r="H38">
-        <v>1.382142937439717</v>
+        <v>2.003506327575658</v>
       </c>
       <c r="I38">
-        <v>336.2879823991708</v>
+        <v>487.471362312537</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1499,28 +1499,28 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>172.7480127837505</v>
+        <v>250.4095107047931</v>
       </c>
       <c r="C39">
-        <v>2.884425318929271</v>
+        <v>4.181162614482692</v>
       </c>
       <c r="D39">
-        <v>14.98435934056739</v>
+        <v>21.72080610497899</v>
       </c>
       <c r="E39">
-        <v>5.175772720459328</v>
+        <v>7.50262010870061</v>
       </c>
       <c r="F39">
-        <v>1.476762991172239</v>
+        <v>2.140664266334019</v>
       </c>
       <c r="G39">
-        <v>12.42114304502892</v>
+        <v>18.00525691831584</v>
       </c>
       <c r="H39">
-        <v>0.6910714687198584</v>
+        <v>1.001753163787829</v>
       </c>
       <c r="I39">
-        <v>210.3815476686275</v>
+        <v>304.9617738813931</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1528,28 +1528,28 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>131.1605282246995</v>
+        <v>190.1257396091949</v>
       </c>
       <c r="C40">
-        <v>6.224286214531584</v>
+        <v>9.022508799673176</v>
       </c>
       <c r="D40">
-        <v>11.77342519616009</v>
+        <v>17.06634765391205</v>
       </c>
       <c r="E40">
-        <v>2.957584411691045</v>
+        <v>4.287211490686063</v>
       </c>
       <c r="F40">
-        <v>1.37831212509409</v>
+        <v>1.997953315245085</v>
       </c>
       <c r="G40">
-        <v>22.77209558255304</v>
+        <v>33.00963768357904</v>
       </c>
       <c r="H40">
-        <v>1.382142937439717</v>
+        <v>2.003506327575658</v>
       </c>
       <c r="I40">
-        <v>177.6483746921691</v>
+        <v>257.512904879866</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1557,28 +1557,28 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>93.83842669734597</v>
+        <v>136.0249193951963</v>
       </c>
       <c r="C41">
-        <v>4.706167625621442</v>
+        <v>6.821896897313867</v>
       </c>
       <c r="D41">
-        <v>7.492179670283694</v>
+        <v>10.86040305248949</v>
       </c>
       <c r="E41">
-        <v>0.7393961029227613</v>
+        <v>1.071802872671516</v>
       </c>
       <c r="F41">
-        <v>2.461271651953732</v>
+        <v>3.567773777223366</v>
       </c>
       <c r="G41">
-        <v>22.77209558255304</v>
+        <v>33.00963768357904</v>
       </c>
       <c r="H41">
-        <v>0.6910714687198584</v>
+        <v>1.001753163787829</v>
       </c>
       <c r="I41">
-        <v>132.7006087994005</v>
+        <v>192.3581868422615</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1586,25 +1586,25 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>69.3124742650851</v>
+        <v>100.4729518259973</v>
       </c>
       <c r="C42">
-        <v>2.732613460038256</v>
+        <v>3.961101424246761</v>
       </c>
       <c r="D42">
-        <v>11.77342519616009</v>
+        <v>17.06634765391205</v>
       </c>
       <c r="E42">
-        <v>1.478792205845523</v>
+        <v>2.143605745343031</v>
       </c>
       <c r="F42">
-        <v>1.279861259015941</v>
+        <v>1.855242364156151</v>
       </c>
       <c r="G42">
-        <v>20.70190507504821</v>
+        <v>30.00876153052639</v>
       </c>
       <c r="I42">
-        <v>107.2790714611931</v>
+        <v>155.5080105441817</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1612,28 +1612,28 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>54.3836336541437</v>
+        <v>78.83262374039788</v>
       </c>
       <c r="C43">
-        <v>2.428989742256228</v>
+        <v>3.520979043774898</v>
       </c>
       <c r="D43">
-        <v>11.77342519616009</v>
+        <v>17.06634765391205</v>
       </c>
       <c r="E43">
-        <v>1.478792205845523</v>
+        <v>2.143605745343031</v>
       </c>
       <c r="F43">
-        <v>1.575213857250389</v>
+        <v>2.283375217422954</v>
       </c>
       <c r="G43">
-        <v>28.98266710506748</v>
+        <v>42.01226614273694</v>
       </c>
       <c r="H43">
-        <v>0.6910714687198584</v>
+        <v>1.001753163787829</v>
       </c>
       <c r="I43">
-        <v>101.3137932294433</v>
+        <v>146.8609507073756</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1641,25 +1641,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>89.57304366564841</v>
+        <v>129.8419685135965</v>
       </c>
       <c r="C44">
-        <v>1.973554165583186</v>
+        <v>2.860795473067105</v>
       </c>
       <c r="D44">
-        <v>12.84373657762919</v>
+        <v>18.61783380426771</v>
       </c>
       <c r="E44">
-        <v>2.218188308768283</v>
+        <v>3.215408618014545</v>
       </c>
       <c r="F44">
-        <v>4.331838107438569</v>
+        <v>6.279281847913126</v>
       </c>
       <c r="G44">
-        <v>28.98266710506748</v>
+        <v>42.01226614273694</v>
       </c>
       <c r="I44">
-        <v>139.9230279301351</v>
+        <v>202.8275543995959</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1667,28 +1667,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>212.9137029989025</v>
+        <v>308.6322981731916</v>
       </c>
       <c r="C45">
-        <v>1.669930447801157</v>
+        <v>2.420673092595242</v>
       </c>
       <c r="D45">
-        <v>20.33591624791288</v>
+        <v>29.47823685675719</v>
       </c>
       <c r="E45">
-        <v>23.66067529352836</v>
+        <v>34.2976919254885</v>
       </c>
       <c r="F45">
-        <v>9.45128314350233</v>
+        <v>13.70025130453772</v>
       </c>
       <c r="G45">
-        <v>62.1057152251446</v>
+        <v>90.0262845915792</v>
       </c>
       <c r="H45">
-        <v>1.382142937439717</v>
+        <v>2.003506327575658</v>
       </c>
       <c r="I45">
-        <v>331.5193662942315</v>
+        <v>480.5589422717251</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1696,28 +1696,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>389.2162016424008</v>
+        <v>564.1942679459848</v>
       </c>
       <c r="C46">
-        <v>1.669930447801157</v>
+        <v>2.420673092595242</v>
       </c>
       <c r="D46">
-        <v>43.88276664023304</v>
+        <v>63.61093216458133</v>
       </c>
       <c r="E46">
-        <v>72.46081808643056</v>
+        <v>105.0366815218085</v>
       </c>
       <c r="F46">
-        <v>12.01100566153421</v>
+        <v>17.41073603285001</v>
       </c>
       <c r="G46">
-        <v>122.1412399427844</v>
+        <v>177.0516930301058</v>
       </c>
       <c r="H46">
-        <v>2.764285874879433</v>
+        <v>4.007012655151317</v>
       </c>
       <c r="I46">
-        <v>644.1462482960636</v>
+        <v>933.731996443077</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1725,28 +1725,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>531.3956360323191</v>
+        <v>770.2926306659789</v>
       </c>
       <c r="C47">
-        <v>2.580801601147243</v>
+        <v>3.74104023401083</v>
       </c>
       <c r="D47">
-        <v>55.65619183639315</v>
+        <v>80.67727981849343</v>
       </c>
       <c r="E47">
-        <v>57.67289602797537</v>
+        <v>83.6006240683782</v>
       </c>
       <c r="F47">
-        <v>12.50325999192496</v>
+        <v>18.1242907882947</v>
       </c>
       <c r="G47">
-        <v>99.36914436023135</v>
+        <v>144.0420553465267</v>
       </c>
       <c r="H47">
-        <v>4.837500281039007</v>
+        <v>7.012272146514803</v>
       </c>
       <c r="I47">
-        <v>764.0154301310301</v>
+        <v>1107.490193068197</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1754,28 +1754,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>586.4901668584124</v>
+        <v>850.155746219977</v>
       </c>
       <c r="C48">
-        <v>3.795296472275357</v>
+        <v>5.501529755898278</v>
       </c>
       <c r="D48">
-        <v>64.21868288814596</v>
+        <v>93.08916902133853</v>
       </c>
       <c r="E48">
-        <v>29.57584411691044</v>
+        <v>42.87211490686063</v>
       </c>
       <c r="F48">
-        <v>15.45678597426944</v>
+        <v>22.40561932096275</v>
       </c>
       <c r="G48">
-        <v>103.509525375241</v>
+        <v>150.043807652632</v>
       </c>
       <c r="H48">
-        <v>6.219643218478722</v>
+        <v>9.01577847409046</v>
       </c>
       <c r="I48">
-        <v>809.2659449037333</v>
+        <v>1173.08376535176</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1783,28 +1783,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>493.3626373330162</v>
+        <v>715.1613186383807</v>
       </c>
       <c r="C49">
-        <v>7.438781085659699</v>
+        <v>10.78299832156063</v>
       </c>
       <c r="D49">
-        <v>72.78117393989874</v>
+        <v>105.5010582241837</v>
       </c>
       <c r="E49">
-        <v>19.96369477891455</v>
+        <v>28.93867756213092</v>
       </c>
       <c r="F49">
-        <v>19.00101715308281</v>
+        <v>27.54321356016439</v>
       </c>
       <c r="G49">
-        <v>138.702764002823</v>
+        <v>201.0587022545268</v>
       </c>
       <c r="H49">
-        <v>2.764285874879433</v>
+        <v>4.007012655151317</v>
       </c>
       <c r="I49">
-        <v>754.0143541682745</v>
+        <v>1092.992981216099</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기대로_겨울_배출량/경기대로_겨울_배출량_CO.xlsx
+++ b/output/경기대로_겨울_배출량/경기대로_겨울_배출량_CO.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>712.0698431975806</v>
+        <v>483.9682857485653</v>
       </c>
       <c r="C2">
-        <v>14.30397736533553</v>
+        <v>9.721899433068476</v>
       </c>
       <c r="D2">
-        <v>111.7070028256062</v>
+        <v>75.9232358736724</v>
       </c>
       <c r="E2">
-        <v>17.14884596274425</v>
+        <v>11.65545439459462</v>
       </c>
       <c r="F2">
-        <v>33.67978445698857</v>
+        <v>22.89093928600364</v>
       </c>
       <c r="G2">
-        <v>174.0508168770531</v>
+        <v>118.2960860958016</v>
       </c>
       <c r="H2">
-        <v>8.014025310302634</v>
+        <v>5.446845036936343</v>
       </c>
       <c r="I2">
-        <v>1070.974295995611</v>
+        <v>727.9027458686423</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>740.4083680715802</v>
+        <v>503.2289628224959</v>
       </c>
       <c r="C3">
-        <v>12.54348784344807</v>
+        <v>8.525357964383122</v>
       </c>
       <c r="D3">
-        <v>102.3980859234724</v>
+        <v>69.59629955086631</v>
       </c>
       <c r="E3">
-        <v>17.14884596274425</v>
+        <v>11.65545439459462</v>
       </c>
       <c r="F3">
-        <v>26.40152595145291</v>
+        <v>17.94416850809606</v>
       </c>
       <c r="G3">
-        <v>150.043807652632</v>
+        <v>101.9793845653462</v>
       </c>
       <c r="H3">
-        <v>11.01928480166612</v>
+        <v>7.48941192578747</v>
       </c>
       <c r="I3">
-        <v>1059.963406206996</v>
+        <v>720.4190397315697</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>780.597548801979</v>
+        <v>530.5441048546144</v>
       </c>
       <c r="C4">
-        <v>13.4237326043918</v>
+        <v>9.123628698725801</v>
       </c>
       <c r="D4">
-        <v>100.8465997731167</v>
+        <v>68.54181016373202</v>
       </c>
       <c r="E4">
-        <v>16.07704309007273</v>
+        <v>10.92698849493246</v>
       </c>
       <c r="F4">
-        <v>29.82658877758734</v>
+        <v>20.2720606388761</v>
       </c>
       <c r="G4">
-        <v>135.0394268873688</v>
+        <v>91.78144610881154</v>
       </c>
       <c r="H4">
-        <v>10.01753163787829</v>
+        <v>6.808556296170428</v>
       </c>
       <c r="I4">
-        <v>1085.828471572395</v>
+        <v>737.9985952558628</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>776.4755815475792</v>
+        <v>527.7425518256791</v>
       </c>
       <c r="C5">
-        <v>9.902753560616901</v>
+        <v>6.730545761355097</v>
       </c>
       <c r="D5">
-        <v>93.08916902133853</v>
+        <v>63.26936322806031</v>
       </c>
       <c r="E5">
-        <v>16.07704309007273</v>
+        <v>10.92698849493246</v>
       </c>
       <c r="F5">
-        <v>30.11201067976521</v>
+        <v>20.46605164977444</v>
       </c>
       <c r="G5">
-        <v>102.0297892037898</v>
+        <v>69.34598150443539</v>
       </c>
       <c r="H5">
-        <v>8.014025310302634</v>
+        <v>5.446845036936343</v>
       </c>
       <c r="I5">
-        <v>1035.700372413465</v>
+        <v>703.928327501173</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>802.7531227943783</v>
+        <v>545.6024523851414</v>
       </c>
       <c r="C6">
-        <v>11.88330427274028</v>
+        <v>8.076654913626117</v>
       </c>
       <c r="D6">
-        <v>110.1555166752506</v>
+        <v>74.86874648653803</v>
       </c>
       <c r="E6">
-        <v>20.36425458075879</v>
+        <v>13.84085209358111</v>
       </c>
       <c r="F6">
-        <v>25.83068214709717</v>
+        <v>17.5561864862994</v>
       </c>
       <c r="G6">
-        <v>108.031541509895</v>
+        <v>73.42515688704921</v>
       </c>
       <c r="H6">
-        <v>6.010518982726974</v>
+        <v>4.085133777702257</v>
       </c>
       <c r="I6">
-        <v>1085.028940962847</v>
+        <v>737.4551830299376</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>819.2409918119777</v>
+        <v>556.8086645008821</v>
       </c>
       <c r="C7">
-        <v>10.34287594108876</v>
+        <v>7.029681128526437</v>
       </c>
       <c r="D7">
-        <v>114.8099751263175</v>
+        <v>78.032214647941</v>
       </c>
       <c r="E7">
-        <v>19.29245170808727</v>
+        <v>13.11238619391895</v>
       </c>
       <c r="F7">
-        <v>22.69104122314062</v>
+        <v>15.4222853664177</v>
       </c>
       <c r="G7">
-        <v>87.02540843852657</v>
+        <v>59.14804304790079</v>
       </c>
       <c r="H7">
-        <v>13.02279112924177</v>
+        <v>8.851123185021557</v>
       </c>
       <c r="I7">
-        <v>1086.42553537838</v>
+        <v>738.4043980706085</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>897.5583696455753</v>
+        <v>610.0381720506518</v>
       </c>
       <c r="C8">
-        <v>11.44318189226842</v>
+        <v>7.777519546454778</v>
       </c>
       <c r="D8">
-        <v>108.6040305248949</v>
+        <v>73.81425709940373</v>
       </c>
       <c r="E8">
-        <v>36.44129767083152</v>
+        <v>24.76784058851357</v>
       </c>
       <c r="F8">
-        <v>24.68899453838569</v>
+        <v>16.78022244270605</v>
       </c>
       <c r="G8">
-        <v>57.01664690800015</v>
+        <v>38.75216613483154</v>
       </c>
       <c r="H8">
-        <v>11.01928480166612</v>
+        <v>7.48941192578747</v>
       </c>
       <c r="I8">
-        <v>1146.771805981622</v>
+        <v>779.4195897883491</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>990.3026328695739</v>
+        <v>673.0731152016955</v>
       </c>
       <c r="C9">
-        <v>9.682692370380968</v>
+        <v>6.580978077769429</v>
       </c>
       <c r="D9">
-        <v>103.9495720738281</v>
+        <v>70.65078893800072</v>
       </c>
       <c r="E9">
-        <v>66.45177810563395</v>
+        <v>45.16488577905415</v>
       </c>
       <c r="F9">
-        <v>23.11917407640741</v>
+        <v>15.7132718827652</v>
       </c>
       <c r="G9">
-        <v>57.01664690800015</v>
+        <v>38.75216613483154</v>
       </c>
       <c r="H9">
-        <v>7.012272146514803</v>
+        <v>4.7659894073193</v>
       </c>
       <c r="I9">
-        <v>1257.53476855034</v>
+        <v>854.7011954214358</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>951.6591898595741</v>
+        <v>646.8085555554277</v>
       </c>
       <c r="C10">
-        <v>11.00305951179656</v>
+        <v>7.478384179283442</v>
       </c>
       <c r="D10">
-        <v>128.7733504795183</v>
+        <v>87.52261913215008</v>
       </c>
       <c r="E10">
-        <v>80.38521545036366</v>
+        <v>54.63494247466228</v>
       </c>
       <c r="F10">
-        <v>12.41585274473732</v>
+        <v>8.438608974077605</v>
       </c>
       <c r="G10">
-        <v>42.01226614273694</v>
+        <v>28.55422767829693</v>
       </c>
       <c r="H10">
-        <v>3.005259491363487</v>
+        <v>2.042566888851129</v>
       </c>
       <c r="I10">
-        <v>1229.25419368009</v>
+        <v>835.4799048827492</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>688.3685314847814</v>
+        <v>467.8593558321881</v>
       </c>
       <c r="C11">
-        <v>9.022508799673176</v>
+        <v>6.132275027012424</v>
       </c>
       <c r="D11">
-        <v>91.53768287098285</v>
+        <v>62.21487384092597</v>
       </c>
       <c r="E11">
-        <v>64.30817236029092</v>
+        <v>43.70795397972982</v>
       </c>
       <c r="F11">
-        <v>6.42199279900206</v>
+        <v>4.364797745212555</v>
       </c>
       <c r="G11">
-        <v>36.01051383663167</v>
+        <v>24.47505229568308</v>
       </c>
       <c r="H11">
-        <v>3.005259491363487</v>
+        <v>2.042566888851129</v>
       </c>
       <c r="I11">
-        <v>898.6746616427257</v>
+        <v>610.7968756096031</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>575.5296778955844</v>
+        <v>391.1668416650853</v>
       </c>
       <c r="C12">
-        <v>9.902753560616901</v>
+        <v>6.730545761355097</v>
       </c>
       <c r="D12">
-        <v>80.67727981849343</v>
+        <v>54.83344813098564</v>
       </c>
       <c r="E12">
-        <v>50.37473501556123</v>
+        <v>34.23789728412169</v>
       </c>
       <c r="F12">
-        <v>5.708438043557386</v>
+        <v>3.879820217966718</v>
       </c>
       <c r="G12">
-        <v>45.0131422957896</v>
+        <v>30.59381536960384</v>
       </c>
       <c r="H12">
-        <v>4.007012655151317</v>
+        <v>2.723422518468171</v>
       </c>
       <c r="I12">
-        <v>771.2130392847544</v>
+        <v>524.1657909475864</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>475.0567260695871</v>
+        <v>322.8789865847883</v>
       </c>
       <c r="C13">
-        <v>6.601835707077932</v>
+        <v>4.487030507570066</v>
       </c>
       <c r="D13">
-        <v>65.16241831493696</v>
+        <v>44.28855425964223</v>
       </c>
       <c r="E13">
-        <v>37.51310054350304</v>
+        <v>25.49630648817573</v>
       </c>
       <c r="F13">
-        <v>2.854219021778693</v>
+        <v>1.939910108983359</v>
       </c>
       <c r="G13">
-        <v>21.00613307136847</v>
+        <v>14.27711383914846</v>
       </c>
       <c r="H13">
-        <v>2.003506327575658</v>
+        <v>1.361711259234086</v>
       </c>
       <c r="I13">
-        <v>610.1979390558279</v>
+        <v>414.7296130475422</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>363.7636102007903</v>
+        <v>247.2370548035364</v>
       </c>
       <c r="C14">
-        <v>5.94165213637014</v>
+        <v>4.038327456813058</v>
       </c>
       <c r="D14">
-        <v>34.1326953078241</v>
+        <v>23.19876651695544</v>
       </c>
       <c r="E14">
-        <v>17.14884596274425</v>
+        <v>11.65545439459462</v>
       </c>
       <c r="F14">
-        <v>3.567773777223366</v>
+        <v>2.424887636229198</v>
       </c>
       <c r="G14">
-        <v>15.0043807652632</v>
+        <v>10.19793845653462</v>
       </c>
       <c r="H14">
-        <v>3.005259491363487</v>
+        <v>2.042566888851129</v>
       </c>
       <c r="I14">
-        <v>442.5642176415788</v>
+        <v>300.7949961535144</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>213.8270513219941</v>
+        <v>145.3305633760166</v>
       </c>
       <c r="C15">
-        <v>2.640734282831173</v>
+        <v>1.794812203028026</v>
       </c>
       <c r="D15">
-        <v>18.61783380426771</v>
+        <v>12.65387264561206</v>
       </c>
       <c r="E15">
-        <v>10.71802872671516</v>
+        <v>7.284658996621636</v>
       </c>
       <c r="F15">
-        <v>2.854219021778693</v>
+        <v>1.939910108983359</v>
       </c>
       <c r="G15">
-        <v>21.00613307136847</v>
+        <v>14.27711383914846</v>
       </c>
       <c r="H15">
-        <v>1.001753163787829</v>
+        <v>0.6808556296170428</v>
       </c>
       <c r="I15">
-        <v>270.6657533927432</v>
+        <v>183.9617867990272</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>172.0921328711954</v>
+        <v>116.964838958047</v>
       </c>
       <c r="C16">
-        <v>5.061407375426417</v>
+        <v>3.440056722470383</v>
       </c>
       <c r="D16">
-        <v>21.72080610497899</v>
+        <v>14.76285141988074</v>
       </c>
       <c r="E16">
-        <v>3.215408618014545</v>
+        <v>2.185397698986492</v>
       </c>
       <c r="F16">
-        <v>1.569820461978281</v>
+        <v>1.066950559940848</v>
       </c>
       <c r="G16">
-        <v>24.00700922442111</v>
+        <v>16.31670153045539</v>
       </c>
       <c r="H16">
-        <v>1.001753163787829</v>
+        <v>0.6808556296170428</v>
       </c>
       <c r="I16">
-        <v>228.6683378198026</v>
+        <v>155.4176525193979</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,25 +873,25 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>109.232132241597</v>
+        <v>74.24115526678432</v>
       </c>
       <c r="C17">
-        <v>6.821896897313867</v>
+        <v>4.636598191155734</v>
       </c>
       <c r="D17">
-        <v>10.86040305248949</v>
+        <v>7.381425709940369</v>
       </c>
       <c r="E17">
-        <v>1.071802872671516</v>
+        <v>0.7284658996621637</v>
       </c>
       <c r="F17">
-        <v>3.282351875045497</v>
+        <v>2.230896625330863</v>
       </c>
       <c r="G17">
-        <v>24.00700922442111</v>
+        <v>16.31670153045539</v>
       </c>
       <c r="I17">
-        <v>155.2755961635385</v>
+        <v>105.5352432233288</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,25 +899,25 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>74.710656485998</v>
+        <v>50.77814864945153</v>
       </c>
       <c r="C18">
-        <v>5.94165213637014</v>
+        <v>4.038327456813058</v>
       </c>
       <c r="D18">
-        <v>10.86040305248949</v>
+        <v>7.381425709940369</v>
       </c>
       <c r="E18">
-        <v>1.071802872671516</v>
+        <v>0.7284658996621637</v>
       </c>
       <c r="F18">
-        <v>1.712531413067215</v>
+        <v>1.163946065390015</v>
       </c>
       <c r="G18">
-        <v>33.00963768357904</v>
+        <v>22.43546460437616</v>
       </c>
       <c r="I18">
-        <v>127.3066836441754</v>
+        <v>86.52577838563329</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -925,25 +925,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>77.28688601999787</v>
+        <v>52.52911929253607</v>
       </c>
       <c r="C19">
-        <v>5.061407375426417</v>
+        <v>3.440056722470383</v>
       </c>
       <c r="D19">
-        <v>15.51486150355642</v>
+        <v>10.54489387134339</v>
       </c>
       <c r="E19">
-        <v>5.359014363357579</v>
+        <v>3.642329498310818</v>
       </c>
       <c r="F19">
-        <v>2.996929972867628</v>
+        <v>2.036905614432526</v>
       </c>
       <c r="G19">
-        <v>27.00788537747375</v>
+        <v>18.3562892217623</v>
       </c>
       <c r="I19">
-        <v>133.2269846126796</v>
+        <v>90.54959422085548</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -951,25 +951,25 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>132.4181980475964</v>
+        <v>89.99989105454513</v>
       </c>
       <c r="C20">
-        <v>3.080856663303035</v>
+        <v>2.093947570199364</v>
       </c>
       <c r="D20">
-        <v>23.27229225533463</v>
+        <v>15.81734080701508</v>
       </c>
       <c r="E20">
-        <v>3.215408618014545</v>
+        <v>2.185397698986492</v>
       </c>
       <c r="F20">
-        <v>5.993859945735257</v>
+        <v>4.073811228865052</v>
       </c>
       <c r="G20">
-        <v>33.00963768357904</v>
+        <v>22.43546460437616</v>
       </c>
       <c r="I20">
-        <v>200.9902532135629</v>
+        <v>136.6058529639873</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -977,28 +977,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>307.0865604527917</v>
+        <v>208.7157006556767</v>
       </c>
       <c r="C21">
-        <v>2.640734282831173</v>
+        <v>1.794812203028026</v>
       </c>
       <c r="D21">
-        <v>54.30201526244745</v>
+        <v>36.90712854970187</v>
       </c>
       <c r="E21">
-        <v>40.72850916151759</v>
+        <v>27.68170418716223</v>
       </c>
       <c r="F21">
-        <v>10.27518847840329</v>
+        <v>6.983676392340091</v>
       </c>
       <c r="G21">
-        <v>87.02540843852657</v>
+        <v>59.14804304790079</v>
       </c>
       <c r="H21">
-        <v>1.001753163787829</v>
+        <v>0.6808556296170428</v>
       </c>
       <c r="I21">
-        <v>503.0601692403055</v>
+        <v>341.9119206654267</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1006,28 +1006,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>546.6759071147856</v>
+        <v>371.5559704625385</v>
       </c>
       <c r="C22">
-        <v>8.802447609437245</v>
+        <v>5.982707343426754</v>
       </c>
       <c r="D22">
-        <v>97.74362747240546</v>
+        <v>66.43283138946335</v>
       </c>
       <c r="E22">
-        <v>105.0366815218085</v>
+        <v>71.38965816689205</v>
       </c>
       <c r="F22">
-        <v>17.12531413067216</v>
+        <v>11.63946065390015</v>
       </c>
       <c r="G22">
-        <v>135.0394268873688</v>
+        <v>91.78144610881154</v>
       </c>
       <c r="H22">
-        <v>5.008765818939146</v>
+        <v>3.404278148085214</v>
       </c>
       <c r="I22">
-        <v>915.4321705554169</v>
+        <v>622.1863522731177</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1035,28 +1035,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>756.8962370891792</v>
+        <v>514.4351749382365</v>
       </c>
       <c r="C23">
-        <v>4.401223804718622</v>
+        <v>2.991353671713377</v>
       </c>
       <c r="D23">
-        <v>65.16241831493696</v>
+        <v>44.28855425964223</v>
       </c>
       <c r="E23">
-        <v>87.88783555906427</v>
+        <v>59.73420377229741</v>
       </c>
       <c r="F23">
-        <v>20.26495505462873</v>
+        <v>13.77336177378185</v>
       </c>
       <c r="G23">
-        <v>123.0359222751582</v>
+        <v>83.62309534358387</v>
       </c>
       <c r="H23">
-        <v>10.01753163787829</v>
+        <v>6.808556296170428</v>
       </c>
       <c r="I23">
-        <v>1067.666123735564</v>
+        <v>725.6543000554256</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1064,28 +1064,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>885.7077137891758</v>
+        <v>601.9837070924634</v>
       </c>
       <c r="C24">
-        <v>5.281468565662347</v>
+        <v>3.589624406056052</v>
       </c>
       <c r="D24">
-        <v>80.67727981849343</v>
+        <v>54.83344813098564</v>
       </c>
       <c r="E24">
-        <v>38.58490341617455</v>
+        <v>26.22477238783789</v>
       </c>
       <c r="F24">
-        <v>21.54935361442913</v>
+        <v>14.64632132282436</v>
       </c>
       <c r="G24">
-        <v>171.0499407240005</v>
+        <v>116.2564984044946</v>
       </c>
       <c r="H24">
-        <v>8.014025310302634</v>
+        <v>5.446845036936343</v>
       </c>
       <c r="I24">
-        <v>1210.864685238239</v>
+        <v>822.9812167815984</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1093,28 +1093,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>715.1613186383807</v>
+        <v>486.0694505202671</v>
       </c>
       <c r="C25">
-        <v>10.78299832156063</v>
+        <v>7.328816495697773</v>
       </c>
       <c r="D25">
-        <v>105.5010582241837</v>
+        <v>71.70527832513507</v>
       </c>
       <c r="E25">
-        <v>28.93867756213092</v>
+        <v>19.66857929087842</v>
       </c>
       <c r="F25">
-        <v>27.54321356016439</v>
+        <v>18.72013255168941</v>
       </c>
       <c r="G25">
-        <v>201.0587022545268</v>
+        <v>136.6523753175638</v>
       </c>
       <c r="H25">
-        <v>4.007012655151317</v>
+        <v>2.723422518468171</v>
       </c>
       <c r="I25">
-        <v>1092.992981216099</v>
+        <v>742.8680550196997</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1122,28 +1122,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>732.1644335627802</v>
+        <v>497.6258567646249</v>
       </c>
       <c r="C26">
-        <v>11.88330427274028</v>
+        <v>8.076654913626117</v>
       </c>
       <c r="D26">
-        <v>100.8465997731167</v>
+        <v>68.54181016373202</v>
       </c>
       <c r="E26">
-        <v>17.14884596274425</v>
+        <v>11.65545439459462</v>
       </c>
       <c r="F26">
-        <v>35.96315967441153</v>
+        <v>24.44286737319031</v>
       </c>
       <c r="G26">
-        <v>207.0604545606321</v>
+        <v>140.7315507001777</v>
       </c>
       <c r="H26">
-        <v>10.01753163787829</v>
+        <v>6.808556296170428</v>
       </c>
       <c r="I26">
-        <v>1115.084329444303</v>
+        <v>757.882750606116</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1151,28 +1151,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>719.2832858927803</v>
+        <v>488.8710035492024</v>
       </c>
       <c r="C27">
-        <v>14.30397736533553</v>
+        <v>9.721899433068476</v>
       </c>
       <c r="D27">
-        <v>89.98619672062723</v>
+        <v>61.16038445379164</v>
       </c>
       <c r="E27">
-        <v>13.9334373447297</v>
+        <v>9.470056695608129</v>
       </c>
       <c r="F27">
-        <v>29.82658877758734</v>
+        <v>20.2720606388761</v>
       </c>
       <c r="G27">
-        <v>192.0560737953689</v>
+        <v>130.5336122436431</v>
       </c>
       <c r="H27">
-        <v>9.01577847409046</v>
+        <v>6.127700666553386</v>
       </c>
       <c r="I27">
-        <v>1068.40533837052</v>
+        <v>726.1567176807433</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1180,28 +1180,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>734.2254171899804</v>
+        <v>499.0266332790927</v>
       </c>
       <c r="C28">
-        <v>11.00305951179656</v>
+        <v>7.478384179283442</v>
       </c>
       <c r="D28">
-        <v>79.12579366813773</v>
+        <v>53.77895874385128</v>
       </c>
       <c r="E28">
-        <v>20.36425458075879</v>
+        <v>13.84085209358111</v>
       </c>
       <c r="F28">
-        <v>25.25983834274142</v>
+        <v>17.16820446450272</v>
       </c>
       <c r="G28">
-        <v>141.0411791934741</v>
+        <v>95.86062149142542</v>
       </c>
       <c r="H28">
-        <v>13.02279112924177</v>
+        <v>8.851123185021557</v>
       </c>
       <c r="I28">
-        <v>1024.042333616131</v>
+        <v>696.0047774367583</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1209,28 +1209,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>776.9908274543789</v>
+        <v>528.092745954296</v>
       </c>
       <c r="C29">
-        <v>9.902753560616901</v>
+        <v>6.730545761355097</v>
       </c>
       <c r="D29">
-        <v>114.8099751263175</v>
+        <v>78.032214647941</v>
       </c>
       <c r="E29">
-        <v>26.79507181678788</v>
+        <v>18.21164749155409</v>
       </c>
       <c r="F29">
-        <v>28.8276121199648</v>
+        <v>19.59309210073193</v>
       </c>
       <c r="G29">
-        <v>138.0403030404215</v>
+        <v>93.82103380011843</v>
       </c>
       <c r="H29">
-        <v>13.02279112924177</v>
+        <v>8.851123185021557</v>
       </c>
       <c r="I29">
-        <v>1108.389334247729</v>
+        <v>753.3324029410182</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1238,28 +1238,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>682.1855806031813</v>
+        <v>463.6570262887846</v>
       </c>
       <c r="C30">
-        <v>9.462631180145038</v>
+        <v>6.43141039418376</v>
       </c>
       <c r="D30">
-        <v>116.3614612766732</v>
+        <v>79.08670403507539</v>
       </c>
       <c r="E30">
-        <v>17.14884596274425</v>
+        <v>11.65545439459462</v>
       </c>
       <c r="F30">
-        <v>26.25881500036398</v>
+        <v>17.8471730026469</v>
       </c>
       <c r="G30">
-        <v>81.02365613242128</v>
+        <v>55.06886766528692</v>
       </c>
       <c r="H30">
-        <v>8.014025310302634</v>
+        <v>5.446845036936343</v>
       </c>
       <c r="I30">
-        <v>940.4550154658316</v>
+        <v>639.1934808175084</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1267,28 +1267,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>802.2378768875782</v>
+        <v>545.2522582565247</v>
       </c>
       <c r="C31">
-        <v>7.262019277785725</v>
+        <v>4.935733558327072</v>
       </c>
       <c r="D31">
-        <v>83.78025211920468</v>
+        <v>56.94242690525427</v>
       </c>
       <c r="E31">
-        <v>16.07704309007273</v>
+        <v>10.92698849493246</v>
       </c>
       <c r="F31">
-        <v>25.68797119600824</v>
+        <v>17.45919098085022</v>
       </c>
       <c r="G31">
-        <v>126.0367984282109</v>
+        <v>85.66268303489078</v>
       </c>
       <c r="H31">
-        <v>15.02629745681744</v>
+        <v>10.21283444425565</v>
       </c>
       <c r="I31">
-        <v>1076.108258455678</v>
+        <v>731.392115675035</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1296,28 +1296,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>916.6224681971751</v>
+        <v>622.9953548094777</v>
       </c>
       <c r="C32">
-        <v>9.682692370380968</v>
+        <v>6.580978077769429</v>
       </c>
       <c r="D32">
-        <v>100.8465997731167</v>
+        <v>68.54181016373202</v>
       </c>
       <c r="E32">
-        <v>35.36949479816003</v>
+        <v>24.0393746888514</v>
       </c>
       <c r="F32">
-        <v>24.83170548947463</v>
+        <v>16.87721794815521</v>
       </c>
       <c r="G32">
-        <v>102.0297892037898</v>
+        <v>69.34598150443539</v>
       </c>
       <c r="H32">
-        <v>9.01577847409046</v>
+        <v>6.127700666553386</v>
       </c>
       <c r="I32">
-        <v>1198.398528306188</v>
+        <v>814.5084178589746</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1325,28 +1325,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>1005.244764166773</v>
+        <v>683.2287449315854</v>
       </c>
       <c r="C33">
-        <v>7.262019277785725</v>
+        <v>4.935733558327072</v>
       </c>
       <c r="D33">
-        <v>76.02282136742646</v>
+        <v>51.6699799695826</v>
       </c>
       <c r="E33">
-        <v>60.02096086960488</v>
+        <v>40.79409038108117</v>
       </c>
       <c r="F33">
-        <v>20.26495505462873</v>
+        <v>13.77336177378185</v>
       </c>
       <c r="G33">
-        <v>51.01489460189488</v>
+        <v>34.67299075221769</v>
       </c>
       <c r="H33">
-        <v>7.012272146514803</v>
+        <v>4.7659894073193</v>
       </c>
       <c r="I33">
-        <v>1226.842687484629</v>
+        <v>833.8408907738954</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1354,28 +1354,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>1049.040666244771</v>
+        <v>712.995245864023</v>
       </c>
       <c r="C34">
-        <v>5.061407375426417</v>
+        <v>3.440056722470383</v>
       </c>
       <c r="D34">
-        <v>86.88322441991595</v>
+        <v>59.05140567952295</v>
       </c>
       <c r="E34">
-        <v>77.1698068323491</v>
+        <v>52.44954477567579</v>
       </c>
       <c r="F34">
-        <v>13.70025130453772</v>
+        <v>9.311568523120117</v>
       </c>
       <c r="G34">
-        <v>27.00788537747375</v>
+        <v>18.3562892217623</v>
       </c>
       <c r="H34">
-        <v>5.008765818939146</v>
+        <v>3.404278148085214</v>
       </c>
       <c r="I34">
-        <v>1263.872007373413</v>
+        <v>859.0083889346598</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1383,28 +1383,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>735.7711549103801</v>
+        <v>500.0772156649433</v>
       </c>
       <c r="C35">
-        <v>4.621284994954554</v>
+        <v>3.140921355299045</v>
       </c>
       <c r="D35">
-        <v>71.36836291635952</v>
+        <v>48.50651180817955</v>
       </c>
       <c r="E35">
-        <v>57.87735512426183</v>
+        <v>39.33715858175683</v>
       </c>
       <c r="F35">
-        <v>7.991813260980341</v>
+        <v>5.431748305153404</v>
       </c>
       <c r="G35">
-        <v>45.0131422957896</v>
+        <v>30.59381536960384</v>
       </c>
       <c r="H35">
-        <v>5.008765818939146</v>
+        <v>3.404278148085214</v>
       </c>
       <c r="I35">
-        <v>927.6518793216652</v>
+        <v>630.4916492330212</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1412,28 +1412,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>651.2708261951821</v>
+        <v>442.6453785717704</v>
       </c>
       <c r="C36">
-        <v>3.080856663303035</v>
+        <v>2.093947570199364</v>
       </c>
       <c r="D36">
-        <v>48.09607066102492</v>
+        <v>32.68917100116449</v>
       </c>
       <c r="E36">
-        <v>62.16456661494789</v>
+        <v>42.2510221804055</v>
       </c>
       <c r="F36">
-        <v>6.279281847913126</v>
+        <v>4.26780223976339</v>
       </c>
       <c r="G36">
-        <v>42.01226614273694</v>
+        <v>28.55422767829693</v>
       </c>
       <c r="H36">
-        <v>7.012272146514803</v>
+        <v>4.7659894073193</v>
       </c>
       <c r="I36">
-        <v>819.9161402716228</v>
+        <v>557.2675386489194</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1441,28 +1441,28 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>520.9136117747855</v>
+        <v>354.0462640316931</v>
       </c>
       <c r="C37">
-        <v>3.080856663303035</v>
+        <v>2.093947570199364</v>
       </c>
       <c r="D37">
-        <v>52.75052911209183</v>
+        <v>35.85263916256753</v>
       </c>
       <c r="E37">
-        <v>34.2976919254885</v>
+        <v>23.31090878918924</v>
       </c>
       <c r="F37">
-        <v>5.565727092468449</v>
+        <v>3.782824712517549</v>
       </c>
       <c r="G37">
-        <v>27.00788537747375</v>
+        <v>18.3562892217623</v>
       </c>
       <c r="H37">
-        <v>4.007012655151317</v>
+        <v>2.723422518468171</v>
       </c>
       <c r="I37">
-        <v>647.6233146007625</v>
+        <v>440.1662960063973</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1470,28 +1470,28 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>400.861315490389</v>
+        <v>272.4510320639538</v>
       </c>
       <c r="C38">
-        <v>5.281468565662347</v>
+        <v>3.589624406056052</v>
       </c>
       <c r="D38">
-        <v>31.02972300711284</v>
+        <v>21.08978774268677</v>
       </c>
       <c r="E38">
-        <v>17.14884596274425</v>
+        <v>11.65545439459462</v>
       </c>
       <c r="F38">
-        <v>4.138617581579103</v>
+        <v>2.81286965802587</v>
       </c>
       <c r="G38">
-        <v>27.00788537747375</v>
+        <v>18.3562892217623</v>
       </c>
       <c r="H38">
-        <v>2.003506327575658</v>
+        <v>1.361711259234086</v>
       </c>
       <c r="I38">
-        <v>487.471362312537</v>
+        <v>331.3167687463135</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1499,28 +1499,28 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>250.4095107047931</v>
+        <v>170.1943465078168</v>
       </c>
       <c r="C39">
-        <v>4.181162614482692</v>
+        <v>2.841785988127709</v>
       </c>
       <c r="D39">
-        <v>21.72080610497899</v>
+        <v>14.76285141988074</v>
       </c>
       <c r="E39">
-        <v>7.50262010870061</v>
+        <v>5.099261297635146</v>
       </c>
       <c r="F39">
-        <v>2.140664266334019</v>
+        <v>1.454932581737519</v>
       </c>
       <c r="G39">
-        <v>18.00525691831584</v>
+        <v>12.23752614784154</v>
       </c>
       <c r="H39">
-        <v>1.001753163787829</v>
+        <v>0.6808556296170428</v>
       </c>
       <c r="I39">
-        <v>304.9617738813931</v>
+        <v>207.2715595726565</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1528,28 +1528,28 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>190.1257396091949</v>
+        <v>129.2216334596387</v>
       </c>
       <c r="C40">
-        <v>9.022508799673176</v>
+        <v>6.132275027012424</v>
       </c>
       <c r="D40">
-        <v>17.06634765391205</v>
+        <v>11.59938325847772</v>
       </c>
       <c r="E40">
-        <v>4.287211490686063</v>
+        <v>2.913863598648655</v>
       </c>
       <c r="F40">
-        <v>1.997953315245085</v>
+        <v>1.357937076288351</v>
       </c>
       <c r="G40">
-        <v>33.00963768357904</v>
+        <v>22.43546460437616</v>
       </c>
       <c r="H40">
-        <v>2.003506327575658</v>
+        <v>1.361711259234086</v>
       </c>
       <c r="I40">
-        <v>257.512904879866</v>
+        <v>175.0222682836761</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1557,28 +1557,28 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>136.0249193951963</v>
+        <v>92.45124995486347</v>
       </c>
       <c r="C41">
-        <v>6.821896897313867</v>
+        <v>4.636598191155734</v>
       </c>
       <c r="D41">
-        <v>10.86040305248949</v>
+        <v>7.381425709940369</v>
       </c>
       <c r="E41">
-        <v>1.071802872671516</v>
+        <v>0.7284658996621637</v>
       </c>
       <c r="F41">
-        <v>3.567773777223366</v>
+        <v>2.424887636229198</v>
       </c>
       <c r="G41">
-        <v>33.00963768357904</v>
+        <v>22.43546460437616</v>
       </c>
       <c r="H41">
-        <v>1.001753163787829</v>
+        <v>0.6808556296170428</v>
       </c>
       <c r="I41">
-        <v>192.3581868422615</v>
+        <v>130.7389476258442</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1586,25 +1586,25 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>100.4729518259973</v>
+        <v>68.28785508029682</v>
       </c>
       <c r="C42">
-        <v>3.961101424246761</v>
+        <v>2.692218304542039</v>
       </c>
       <c r="D42">
-        <v>17.06634765391205</v>
+        <v>11.59938325847772</v>
       </c>
       <c r="E42">
-        <v>2.143605745343031</v>
+        <v>1.456931799324327</v>
       </c>
       <c r="F42">
-        <v>1.855242364156151</v>
+        <v>1.260941570839183</v>
       </c>
       <c r="G42">
-        <v>30.00876153052639</v>
+        <v>20.39587691306923</v>
       </c>
       <c r="I42">
-        <v>155.5080105441817</v>
+        <v>105.6932069265493</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1612,28 +1612,28 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>78.83262374039788</v>
+        <v>53.57970167838678</v>
       </c>
       <c r="C43">
-        <v>3.520979043774898</v>
+        <v>2.393082937370702</v>
       </c>
       <c r="D43">
-        <v>17.06634765391205</v>
+        <v>11.59938325847772</v>
       </c>
       <c r="E43">
-        <v>2.143605745343031</v>
+        <v>1.456931799324327</v>
       </c>
       <c r="F43">
-        <v>2.283375217422954</v>
+        <v>1.551928087186687</v>
       </c>
       <c r="G43">
-        <v>42.01226614273694</v>
+        <v>28.55422767829693</v>
       </c>
       <c r="H43">
-        <v>1.001753163787829</v>
+        <v>0.6808556296170428</v>
       </c>
       <c r="I43">
-        <v>146.8609507073756</v>
+        <v>99.81611106866018</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1641,25 +1641,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>129.8419685135965</v>
+        <v>88.24892041146057</v>
       </c>
       <c r="C44">
-        <v>2.860795473067105</v>
+        <v>1.944379886613695</v>
       </c>
       <c r="D44">
-        <v>18.61783380426771</v>
+        <v>12.65387264561206</v>
       </c>
       <c r="E44">
-        <v>3.215408618014545</v>
+        <v>2.185397698986492</v>
       </c>
       <c r="F44">
-        <v>6.279281847913126</v>
+        <v>4.26780223976339</v>
       </c>
       <c r="G44">
-        <v>42.01226614273694</v>
+        <v>28.55422767829693</v>
       </c>
       <c r="I44">
-        <v>202.8275543995959</v>
+        <v>137.8546005607331</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1667,28 +1667,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>308.6322981731916</v>
+        <v>209.7662830415274</v>
       </c>
       <c r="C45">
-        <v>2.420673092595242</v>
+        <v>1.645244519442357</v>
       </c>
       <c r="D45">
-        <v>29.47823685675719</v>
+        <v>20.03529835555243</v>
       </c>
       <c r="E45">
-        <v>34.2976919254885</v>
+        <v>23.31090878918924</v>
       </c>
       <c r="F45">
-        <v>13.70025130453772</v>
+        <v>9.311568523120117</v>
       </c>
       <c r="G45">
-        <v>90.0262845915792</v>
+        <v>61.18763073920768</v>
       </c>
       <c r="H45">
-        <v>2.003506327575658</v>
+        <v>1.361711259234086</v>
       </c>
       <c r="I45">
-        <v>480.5589422717251</v>
+        <v>326.6186452272733</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1696,28 +1696,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>564.1942679459848</v>
+        <v>383.4625708355132</v>
       </c>
       <c r="C46">
-        <v>2.420673092595242</v>
+        <v>1.645244519442357</v>
       </c>
       <c r="D46">
-        <v>63.61093216458133</v>
+        <v>43.23406487250787</v>
       </c>
       <c r="E46">
-        <v>105.0366815218085</v>
+        <v>71.38965816689205</v>
       </c>
       <c r="F46">
-        <v>17.41073603285001</v>
+        <v>11.83345166479849</v>
       </c>
       <c r="G46">
-        <v>177.0516930301058</v>
+        <v>120.3356737871085</v>
       </c>
       <c r="H46">
-        <v>4.007012655151317</v>
+        <v>2.723422518468171</v>
       </c>
       <c r="I46">
-        <v>933.731996443077</v>
+        <v>634.6240863647306</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1725,28 +1725,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>770.2926306659789</v>
+        <v>523.5402222822762</v>
       </c>
       <c r="C47">
-        <v>3.74104023401083</v>
+        <v>2.54265062095637</v>
       </c>
       <c r="D47">
-        <v>80.67727981849343</v>
+        <v>54.83344813098564</v>
       </c>
       <c r="E47">
-        <v>83.6006240683782</v>
+        <v>56.82034017364877</v>
       </c>
       <c r="F47">
-        <v>18.1242907882947</v>
+        <v>12.31842919204433</v>
       </c>
       <c r="G47">
-        <v>144.0420553465267</v>
+        <v>97.90020918273231</v>
       </c>
       <c r="H47">
-        <v>7.012272146514803</v>
+        <v>4.7659894073193</v>
       </c>
       <c r="I47">
-        <v>1107.490193068197</v>
+        <v>752.7212889899629</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1754,28 +1754,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>850.155746219977</v>
+        <v>577.820312217897</v>
       </c>
       <c r="C48">
-        <v>5.501529755898278</v>
+        <v>3.739192089641721</v>
       </c>
       <c r="D48">
-        <v>93.08916902133853</v>
+        <v>63.26936322806031</v>
       </c>
       <c r="E48">
-        <v>42.87211490686063</v>
+        <v>29.13863598648654</v>
       </c>
       <c r="F48">
-        <v>22.40561932096275</v>
+        <v>15.22829435551937</v>
       </c>
       <c r="G48">
-        <v>150.043807652632</v>
+        <v>101.9793845653462</v>
       </c>
       <c r="H48">
-        <v>9.01577847409046</v>
+        <v>6.127700666553386</v>
       </c>
       <c r="I48">
-        <v>1173.08376535176</v>
+        <v>797.3028831095046</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1783,28 +1783,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>715.1613186383807</v>
+        <v>486.0694505202671</v>
       </c>
       <c r="C49">
-        <v>10.78299832156063</v>
+        <v>7.328816495697773</v>
       </c>
       <c r="D49">
-        <v>105.5010582241837</v>
+        <v>71.70527832513507</v>
       </c>
       <c r="E49">
-        <v>28.93867756213092</v>
+        <v>19.66857929087842</v>
       </c>
       <c r="F49">
-        <v>27.54321356016439</v>
+        <v>18.72013255168941</v>
       </c>
       <c r="G49">
-        <v>201.0587022545268</v>
+        <v>136.6523753175638</v>
       </c>
       <c r="H49">
-        <v>4.007012655151317</v>
+        <v>2.723422518468171</v>
       </c>
       <c r="I49">
-        <v>1092.992981216099</v>
+        <v>742.8680550196997</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기대로_겨울_배출량/경기대로_겨울_배출량_CO.xlsx
+++ b/output/경기대로_겨울_배출량/경기대로_겨울_배출량_CO.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>483.9682857485653</v>
+        <v>642.149243390893</v>
       </c>
       <c r="C2">
-        <v>9.721899433068476</v>
+        <v>14.30397736533553</v>
       </c>
       <c r="D2">
-        <v>75.9232358736724</v>
+        <v>111.636399064848</v>
       </c>
       <c r="E2">
-        <v>11.65545439459462</v>
+        <v>17.14884596274425</v>
       </c>
       <c r="F2">
-        <v>22.89093928600364</v>
+        <v>33.56746214042191</v>
       </c>
       <c r="G2">
-        <v>118.2960860958016</v>
+        <v>174.018880171572</v>
       </c>
       <c r="H2">
-        <v>5.446845036936343</v>
+        <v>8.014025310302634</v>
       </c>
       <c r="I2">
-        <v>727.9027458686423</v>
+        <v>1000.838833406117</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>503.2289628224959</v>
+        <v>667.7051105301836</v>
       </c>
       <c r="C3">
-        <v>8.525357964383122</v>
+        <v>12.54348784344807</v>
       </c>
       <c r="D3">
-        <v>69.59629955086631</v>
+        <v>102.333365809444</v>
       </c>
       <c r="E3">
-        <v>11.65545439459462</v>
+        <v>17.14884596274425</v>
       </c>
       <c r="F3">
-        <v>17.94416850809606</v>
+        <v>26.31347667787312</v>
       </c>
       <c r="G3">
-        <v>101.9793845653462</v>
+        <v>150.0162760099758</v>
       </c>
       <c r="H3">
-        <v>7.48941192578747</v>
+        <v>11.01928480166612</v>
       </c>
       <c r="I3">
-        <v>720.4190397315697</v>
+        <v>987.079847635335</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>530.5441048546144</v>
+        <v>703.9479766549952</v>
       </c>
       <c r="C4">
-        <v>9.123628698725801</v>
+        <v>13.4237326043918</v>
       </c>
       <c r="D4">
-        <v>68.54181016373202</v>
+        <v>100.7828602668767</v>
       </c>
       <c r="E4">
-        <v>10.92698849493246</v>
+        <v>16.07704309007273</v>
       </c>
       <c r="F4">
-        <v>20.2720606388761</v>
+        <v>29.72711689554313</v>
       </c>
       <c r="G4">
-        <v>91.78144610881154</v>
+        <v>135.0146484089782</v>
       </c>
       <c r="H4">
-        <v>6.808556296170428</v>
+        <v>10.01753163787829</v>
       </c>
       <c r="I4">
-        <v>737.9985952558628</v>
+        <v>1008.990909558736</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>527.7425518256791</v>
+        <v>700.2307596165534</v>
       </c>
       <c r="C5">
-        <v>6.730545761355097</v>
+        <v>9.902753560616901</v>
       </c>
       <c r="D5">
-        <v>63.26936322806031</v>
+        <v>93.0303325540401</v>
       </c>
       <c r="E5">
-        <v>10.92698849493246</v>
+        <v>16.07704309007273</v>
       </c>
       <c r="F5">
-        <v>20.46605164977444</v>
+        <v>30.0115869136823</v>
       </c>
       <c r="G5">
-        <v>69.34598150443539</v>
+        <v>102.0110676867836</v>
       </c>
       <c r="H5">
-        <v>5.446845036936343</v>
+        <v>8.014025310302634</v>
       </c>
       <c r="I5">
-        <v>703.928327501173</v>
+        <v>959.2775687320517</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>545.6024523851414</v>
+        <v>723.9280182366218</v>
       </c>
       <c r="C6">
-        <v>8.076654913626117</v>
+        <v>11.88330427274028</v>
       </c>
       <c r="D6">
-        <v>74.86874648653803</v>
+        <v>110.0858935222807</v>
       </c>
       <c r="E6">
-        <v>13.84085209358111</v>
+        <v>20.36425458075879</v>
       </c>
       <c r="F6">
-        <v>17.5561864862994</v>
+        <v>25.74453664159478</v>
       </c>
       <c r="G6">
-        <v>73.42515688704921</v>
+        <v>108.0117187271826</v>
       </c>
       <c r="H6">
-        <v>4.085133777702257</v>
+        <v>6.010518982726974</v>
       </c>
       <c r="I6">
-        <v>737.4551830299376</v>
+        <v>1006.028244963906</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>556.8086645008821</v>
+        <v>738.7968863903909</v>
       </c>
       <c r="C7">
-        <v>7.029681128526437</v>
+        <v>10.34287594108876</v>
       </c>
       <c r="D7">
-        <v>78.032214647941</v>
+        <v>114.7374101499828</v>
       </c>
       <c r="E7">
-        <v>13.11238619391895</v>
+        <v>19.29245170808727</v>
       </c>
       <c r="F7">
-        <v>15.4222853664177</v>
+        <v>22.61536644206391</v>
       </c>
       <c r="G7">
-        <v>59.14804304790079</v>
+        <v>87.00944008578598</v>
       </c>
       <c r="H7">
-        <v>8.851123185021557</v>
+        <v>13.02279112924177</v>
       </c>
       <c r="I7">
-        <v>738.4043980706085</v>
+        <v>1005.817221846641</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>610.0381720506518</v>
+        <v>809.4240101207929</v>
       </c>
       <c r="C8">
-        <v>7.777519546454778</v>
+        <v>11.44318189226842</v>
       </c>
       <c r="D8">
-        <v>73.81425709940373</v>
+        <v>108.5353879797134</v>
       </c>
       <c r="E8">
-        <v>24.76784058851357</v>
+        <v>36.44129767083152</v>
       </c>
       <c r="F8">
-        <v>16.78022244270605</v>
+        <v>24.6066565690381</v>
       </c>
       <c r="G8">
-        <v>38.75216613483154</v>
+        <v>57.00618488379083</v>
       </c>
       <c r="H8">
-        <v>7.48941192578747</v>
+        <v>11.01928480166612</v>
       </c>
       <c r="I8">
-        <v>779.4195897883491</v>
+        <v>1058.476003918101</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>673.0731152016955</v>
+        <v>893.0613934857432</v>
       </c>
       <c r="C9">
-        <v>6.580978077769429</v>
+        <v>9.682692370380968</v>
       </c>
       <c r="D9">
-        <v>70.65078893800072</v>
+        <v>103.8838713520114</v>
       </c>
       <c r="E9">
-        <v>45.16488577905415</v>
+        <v>66.45177810563395</v>
       </c>
       <c r="F9">
-        <v>15.7132718827652</v>
+        <v>23.04207146927267</v>
       </c>
       <c r="G9">
-        <v>38.75216613483154</v>
+        <v>57.00618488379083</v>
       </c>
       <c r="H9">
-        <v>4.7659894073193</v>
+        <v>7.012272146514803</v>
       </c>
       <c r="I9">
-        <v>854.7011954214358</v>
+        <v>1160.140263813348</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>646.8085555554277</v>
+        <v>858.2124837503474</v>
       </c>
       <c r="C10">
-        <v>7.478384179283442</v>
+        <v>11.00305951179656</v>
       </c>
       <c r="D10">
-        <v>87.52261913215008</v>
+        <v>128.6919600330887</v>
       </c>
       <c r="E10">
-        <v>54.63494247466228</v>
+        <v>80.38521545036366</v>
       </c>
       <c r="F10">
-        <v>8.438608974077605</v>
+        <v>12.37444578905384</v>
       </c>
       <c r="G10">
-        <v>28.55422767829693</v>
+        <v>42.00455728279323</v>
       </c>
       <c r="H10">
-        <v>2.042566888851129</v>
+        <v>3.005259491363487</v>
       </c>
       <c r="I10">
-        <v>835.4799048827492</v>
+        <v>1135.676981308807</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>467.8593558321881</v>
+        <v>620.7752454198505</v>
       </c>
       <c r="C11">
-        <v>6.132275027012424</v>
+        <v>9.022508799673176</v>
       </c>
       <c r="D11">
-        <v>62.21487384092597</v>
+        <v>91.47982701147274</v>
       </c>
       <c r="E11">
-        <v>43.70795397972982</v>
+        <v>64.30817236029092</v>
       </c>
       <c r="F11">
-        <v>4.364797745212555</v>
+        <v>6.400575408131298</v>
       </c>
       <c r="G11">
-        <v>24.47505229568308</v>
+        <v>36.00390624239419</v>
       </c>
       <c r="H11">
-        <v>2.042566888851129</v>
+        <v>3.005259491363487</v>
       </c>
       <c r="I11">
-        <v>610.7968756096031</v>
+        <v>830.9954947331764</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>391.1668416650853</v>
+        <v>519.0164289924948</v>
       </c>
       <c r="C12">
-        <v>6.730545761355097</v>
+        <v>9.902753560616901</v>
       </c>
       <c r="D12">
-        <v>54.83344813098564</v>
+        <v>80.6262882135014</v>
       </c>
       <c r="E12">
-        <v>34.23789728412169</v>
+        <v>50.37473501556123</v>
       </c>
       <c r="F12">
-        <v>3.879820217966718</v>
+        <v>5.689400362783375</v>
       </c>
       <c r="G12">
-        <v>30.59381536960384</v>
+        <v>45.00488280299277</v>
       </c>
       <c r="H12">
-        <v>2.723422518468171</v>
+        <v>4.007012655151317</v>
       </c>
       <c r="I12">
-        <v>524.1657909475864</v>
+        <v>714.6215016031019</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>322.8789865847883</v>
+        <v>428.4092636804657</v>
       </c>
       <c r="C13">
-        <v>4.487030507570066</v>
+        <v>6.601835707077932</v>
       </c>
       <c r="D13">
-        <v>44.28855425964223</v>
+        <v>65.12123278782806</v>
       </c>
       <c r="E13">
-        <v>25.49630648817573</v>
+        <v>37.51310054350304</v>
       </c>
       <c r="F13">
-        <v>1.939910108983359</v>
+        <v>2.844700181391687</v>
       </c>
       <c r="G13">
-        <v>14.27711383914846</v>
+        <v>21.00227864139661</v>
       </c>
       <c r="H13">
-        <v>1.361711259234086</v>
+        <v>2.003506327575658</v>
       </c>
       <c r="I13">
-        <v>414.7296130475422</v>
+        <v>563.4959178692387</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>247.2370548035364</v>
+        <v>328.0444036425258</v>
       </c>
       <c r="C14">
-        <v>4.038327456813058</v>
+        <v>5.94165213637014</v>
       </c>
       <c r="D14">
-        <v>23.19876651695544</v>
+        <v>34.11112193648135</v>
       </c>
       <c r="E14">
-        <v>11.65545439459462</v>
+        <v>17.14884596274425</v>
       </c>
       <c r="F14">
-        <v>2.424887636229198</v>
+        <v>3.555875226739609</v>
       </c>
       <c r="G14">
-        <v>10.19793845653462</v>
+        <v>15.00162760099759</v>
       </c>
       <c r="H14">
-        <v>2.042566888851129</v>
+        <v>3.005259491363487</v>
       </c>
       <c r="I14">
-        <v>300.7949961535144</v>
+        <v>406.8087859972222</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>145.3305633760166</v>
+        <v>192.8306338691901</v>
       </c>
       <c r="C15">
-        <v>1.794812203028026</v>
+        <v>2.640734282831173</v>
       </c>
       <c r="D15">
-        <v>12.65387264561206</v>
+        <v>18.60606651080801</v>
       </c>
       <c r="E15">
-        <v>7.284658996621636</v>
+        <v>10.71802872671516</v>
       </c>
       <c r="F15">
-        <v>1.939910108983359</v>
+        <v>2.844700181391687</v>
       </c>
       <c r="G15">
-        <v>14.27711383914846</v>
+        <v>21.00227864139661</v>
       </c>
       <c r="H15">
-        <v>0.6808556296170428</v>
+        <v>1.001753163787829</v>
       </c>
       <c r="I15">
-        <v>183.9617867990272</v>
+        <v>249.6441953761205</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>116.964838958047</v>
+        <v>155.1938113549626</v>
       </c>
       <c r="C16">
-        <v>3.440056722470383</v>
+        <v>5.061407375426417</v>
       </c>
       <c r="D16">
-        <v>14.76285141988074</v>
+        <v>21.70707759594267</v>
       </c>
       <c r="E16">
-        <v>2.185397698986492</v>
+        <v>3.215408618014545</v>
       </c>
       <c r="F16">
-        <v>1.066950559940848</v>
+        <v>1.564585099765428</v>
       </c>
       <c r="G16">
-        <v>16.31670153045539</v>
+        <v>24.00260416159614</v>
       </c>
       <c r="H16">
-        <v>0.6808556296170428</v>
+        <v>1.001753163787829</v>
       </c>
       <c r="I16">
-        <v>155.4176525193979</v>
+        <v>211.7466473694957</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,25 +873,25 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>74.24115526678432</v>
+        <v>98.50625151871883</v>
       </c>
       <c r="C17">
-        <v>4.636598191155734</v>
+        <v>6.821896897313867</v>
       </c>
       <c r="D17">
-        <v>7.381425709940369</v>
+        <v>10.85353879797134</v>
       </c>
       <c r="E17">
-        <v>0.7284658996621637</v>
+        <v>1.071802872671516</v>
       </c>
       <c r="F17">
-        <v>2.230896625330863</v>
+        <v>3.271405208600441</v>
       </c>
       <c r="G17">
-        <v>16.31670153045539</v>
+        <v>24.00260416159614</v>
       </c>
       <c r="I17">
-        <v>105.5352432233288</v>
+        <v>144.5274994568721</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,25 +899,25 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>50.77814864945153</v>
+        <v>67.37455882176523</v>
       </c>
       <c r="C18">
-        <v>4.038327456813058</v>
+        <v>5.94165213637014</v>
       </c>
       <c r="D18">
-        <v>7.381425709940369</v>
+        <v>10.85353879797134</v>
       </c>
       <c r="E18">
-        <v>0.7284658996621637</v>
+        <v>1.071802872671516</v>
       </c>
       <c r="F18">
-        <v>1.163946065390015</v>
+        <v>1.706820108835012</v>
       </c>
       <c r="G18">
-        <v>22.43546460437616</v>
+        <v>33.00358072219468</v>
       </c>
       <c r="I18">
-        <v>86.52577838563329</v>
+        <v>119.9519534598079</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -925,25 +925,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>52.52911929253607</v>
+        <v>69.69781947079159</v>
       </c>
       <c r="C19">
-        <v>3.440056722470383</v>
+        <v>5.061407375426417</v>
       </c>
       <c r="D19">
-        <v>10.54489387134339</v>
+        <v>15.50505542567334</v>
       </c>
       <c r="E19">
-        <v>3.642329498310818</v>
+        <v>5.359014363357579</v>
       </c>
       <c r="F19">
-        <v>2.036905614432526</v>
+        <v>2.986935190461273</v>
       </c>
       <c r="G19">
-        <v>18.3562892217623</v>
+        <v>27.00292968179566</v>
       </c>
       <c r="I19">
-        <v>90.54959422085548</v>
+        <v>125.6131615075058</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -951,25 +951,25 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>89.99989105454513</v>
+        <v>119.4155973599563</v>
       </c>
       <c r="C20">
-        <v>2.093947570199364</v>
+        <v>3.080856663303035</v>
       </c>
       <c r="D20">
-        <v>15.81734080701508</v>
+        <v>23.25758313851003</v>
       </c>
       <c r="E20">
-        <v>2.185397698986492</v>
+        <v>3.215408618014545</v>
       </c>
       <c r="F20">
-        <v>4.073811228865052</v>
+        <v>5.973870380922546</v>
       </c>
       <c r="G20">
-        <v>22.43546460437616</v>
+        <v>33.00358072219468</v>
       </c>
       <c r="I20">
-        <v>136.6058529639873</v>
+        <v>187.9468968829011</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -977,28 +977,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>208.7157006556767</v>
+        <v>276.9326693639452</v>
       </c>
       <c r="C21">
-        <v>1.794812203028026</v>
+        <v>2.640734282831173</v>
       </c>
       <c r="D21">
-        <v>36.90712854970187</v>
+        <v>54.26769398985669</v>
       </c>
       <c r="E21">
-        <v>27.68170418716223</v>
+        <v>40.72850916151759</v>
       </c>
       <c r="F21">
-        <v>6.983676392340091</v>
+        <v>10.24092065301007</v>
       </c>
       <c r="G21">
-        <v>59.14804304790079</v>
+        <v>87.00944008578598</v>
       </c>
       <c r="H21">
-        <v>0.6808556296170428</v>
+        <v>1.001753163787829</v>
       </c>
       <c r="I21">
-        <v>341.9119206654267</v>
+        <v>472.8217207007345</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1006,28 +1006,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>371.5559704625385</v>
+        <v>492.9959097233993</v>
       </c>
       <c r="C22">
-        <v>5.982707343426754</v>
+        <v>8.802447609437245</v>
       </c>
       <c r="D22">
-        <v>66.43283138946335</v>
+        <v>97.68184918174208</v>
       </c>
       <c r="E22">
-        <v>71.38965816689205</v>
+        <v>105.0366815218085</v>
       </c>
       <c r="F22">
-        <v>11.63946065390015</v>
+        <v>17.06820108835013</v>
       </c>
       <c r="G22">
-        <v>91.78144610881154</v>
+        <v>135.0146484089782</v>
       </c>
       <c r="H22">
-        <v>3.404278148085214</v>
+        <v>5.008765818939146</v>
       </c>
       <c r="I22">
-        <v>622.1863522731177</v>
+        <v>861.6085033526548</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1035,28 +1035,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>514.4351749382365</v>
+        <v>682.5739786839522</v>
       </c>
       <c r="C23">
-        <v>2.991353671713377</v>
+        <v>4.401223804718622</v>
       </c>
       <c r="D23">
-        <v>44.28855425964223</v>
+        <v>65.12123278782806</v>
       </c>
       <c r="E23">
-        <v>59.73420377229741</v>
+        <v>87.88783555906427</v>
       </c>
       <c r="F23">
-        <v>13.77336177378185</v>
+        <v>20.19737128788098</v>
       </c>
       <c r="G23">
-        <v>83.62309534358387</v>
+        <v>123.0133463281802</v>
       </c>
       <c r="H23">
-        <v>6.808556296170428</v>
+        <v>10.01753163787829</v>
       </c>
       <c r="I23">
-        <v>725.6543000554256</v>
+        <v>993.2125200895025</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1064,28 +1064,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>601.9837070924634</v>
+        <v>798.7370111352716</v>
       </c>
       <c r="C24">
-        <v>3.589624406056052</v>
+        <v>5.281468565662347</v>
       </c>
       <c r="D24">
-        <v>54.83344813098564</v>
+        <v>80.6262882135014</v>
       </c>
       <c r="E24">
-        <v>26.22477238783789</v>
+        <v>38.58490341617455</v>
       </c>
       <c r="F24">
-        <v>14.64632132282436</v>
+        <v>21.47748636950724</v>
       </c>
       <c r="G24">
-        <v>116.2564984044946</v>
+        <v>171.0185546513725</v>
       </c>
       <c r="H24">
-        <v>5.446845036936343</v>
+        <v>8.014025310302634</v>
       </c>
       <c r="I24">
-        <v>822.9812167815984</v>
+        <v>1123.739737661792</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1093,28 +1093,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>486.0694505202671</v>
+        <v>644.937156169725</v>
       </c>
       <c r="C25">
-        <v>7.328816495697773</v>
+        <v>10.78299832156063</v>
       </c>
       <c r="D25">
-        <v>71.70527832513507</v>
+        <v>105.4343768945787</v>
       </c>
       <c r="E25">
-        <v>19.66857929087842</v>
+        <v>28.93867756213092</v>
       </c>
       <c r="F25">
-        <v>18.72013255168941</v>
+        <v>27.45135675042978</v>
       </c>
       <c r="G25">
-        <v>136.6523753175638</v>
+        <v>201.0218098533676</v>
       </c>
       <c r="H25">
-        <v>2.723422518468171</v>
+        <v>4.007012655151317</v>
       </c>
       <c r="I25">
-        <v>742.8680550196997</v>
+        <v>1022.573388206944</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1122,28 +1122,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>497.6258567646249</v>
+        <v>660.2706764532993</v>
       </c>
       <c r="C26">
-        <v>8.076654913626117</v>
+        <v>11.88330427274028</v>
       </c>
       <c r="D26">
-        <v>68.54181016373202</v>
+        <v>100.7828602668767</v>
       </c>
       <c r="E26">
-        <v>11.65545439459462</v>
+        <v>17.14884596274425</v>
       </c>
       <c r="F26">
-        <v>24.44286737319031</v>
+        <v>35.84322228553524</v>
       </c>
       <c r="G26">
-        <v>140.7315507001777</v>
+        <v>207.0224608937667</v>
       </c>
       <c r="H26">
-        <v>6.808556296170428</v>
+        <v>10.01753163787829</v>
       </c>
       <c r="I26">
-        <v>757.882750606116</v>
+        <v>1042.968901772841</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1151,28 +1151,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>488.8710035492024</v>
+        <v>648.6543732081674</v>
       </c>
       <c r="C27">
-        <v>9.721899433068476</v>
+        <v>14.30397736533553</v>
       </c>
       <c r="D27">
-        <v>61.16038445379164</v>
+        <v>89.9293214689054</v>
       </c>
       <c r="E27">
-        <v>9.470056695608129</v>
+        <v>13.9334373447297</v>
       </c>
       <c r="F27">
-        <v>20.2720606388761</v>
+        <v>29.72711689554313</v>
       </c>
       <c r="G27">
-        <v>130.5336122436431</v>
+        <v>192.0208332927691</v>
       </c>
       <c r="H27">
-        <v>6.127700666553386</v>
+        <v>9.01577847409046</v>
       </c>
       <c r="I27">
-        <v>726.1567176807433</v>
+        <v>997.5848380495406</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1180,28 +1180,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>499.0266332790927</v>
+        <v>662.1292849725206</v>
       </c>
       <c r="C28">
-        <v>7.478384179283442</v>
+        <v>11.00305951179656</v>
       </c>
       <c r="D28">
-        <v>53.77895874385128</v>
+        <v>79.07578267093405</v>
       </c>
       <c r="E28">
-        <v>13.84085209358111</v>
+        <v>20.36425458075879</v>
       </c>
       <c r="F28">
-        <v>17.16820446450272</v>
+        <v>25.17559660531643</v>
       </c>
       <c r="G28">
-        <v>95.86062149142542</v>
+        <v>141.0152994493773</v>
       </c>
       <c r="H28">
-        <v>8.851123185021557</v>
+        <v>13.02279112924177</v>
       </c>
       <c r="I28">
-        <v>696.0047774367583</v>
+        <v>951.7860689199455</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1209,28 +1209,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>528.092745954296</v>
+        <v>700.6954117463579</v>
       </c>
       <c r="C29">
-        <v>6.730545761355097</v>
+        <v>9.902753560616901</v>
       </c>
       <c r="D29">
-        <v>78.032214647941</v>
+        <v>114.7374101499828</v>
       </c>
       <c r="E29">
-        <v>18.21164749155409</v>
+        <v>26.79507181678788</v>
       </c>
       <c r="F29">
-        <v>19.59309210073193</v>
+        <v>28.73147183205604</v>
       </c>
       <c r="G29">
-        <v>93.82103380011843</v>
+        <v>138.0149739291778</v>
       </c>
       <c r="H29">
-        <v>8.851123185021557</v>
+        <v>13.02279112924177</v>
       </c>
       <c r="I29">
-        <v>753.3324029410182</v>
+        <v>1031.899884164221</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1238,28 +1238,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>463.6570262887846</v>
+        <v>615.1994198621871</v>
       </c>
       <c r="C30">
-        <v>6.43141039418376</v>
+        <v>9.462631180145038</v>
       </c>
       <c r="D30">
-        <v>79.08670403507539</v>
+        <v>116.2879156925501</v>
       </c>
       <c r="E30">
-        <v>11.65545439459462</v>
+        <v>17.14884596274425</v>
       </c>
       <c r="F30">
-        <v>17.8471730026469</v>
+        <v>26.17124166880353</v>
       </c>
       <c r="G30">
-        <v>55.06886766528692</v>
+        <v>81.00878904538695</v>
       </c>
       <c r="H30">
-        <v>5.446845036936343</v>
+        <v>8.014025310302634</v>
       </c>
       <c r="I30">
-        <v>639.1934808175084</v>
+        <v>873.2928687221197</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1267,28 +1267,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>545.2522582565247</v>
+        <v>723.4633661068168</v>
       </c>
       <c r="C31">
-        <v>4.935733558327072</v>
+        <v>7.262019277785725</v>
       </c>
       <c r="D31">
-        <v>56.94242690525427</v>
+        <v>83.72729929863601</v>
       </c>
       <c r="E31">
-        <v>10.92698849493246</v>
+        <v>16.07704309007273</v>
       </c>
       <c r="F31">
-        <v>17.45919098085022</v>
+        <v>25.60230163252519</v>
       </c>
       <c r="G31">
-        <v>85.66268303489078</v>
+        <v>126.0136718483797</v>
       </c>
       <c r="H31">
-        <v>10.21283444425565</v>
+        <v>15.02629745681744</v>
       </c>
       <c r="I31">
-        <v>731.392115675035</v>
+        <v>997.1719987110337</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1296,28 +1296,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>622.9953548094777</v>
+        <v>826.6161389235886</v>
       </c>
       <c r="C32">
-        <v>6.580978077769429</v>
+        <v>9.682692370380968</v>
       </c>
       <c r="D32">
-        <v>68.54181016373202</v>
+        <v>100.7828602668767</v>
       </c>
       <c r="E32">
-        <v>24.0393746888514</v>
+        <v>35.36949479816003</v>
       </c>
       <c r="F32">
-        <v>16.87721794815521</v>
+        <v>24.74889157810768</v>
       </c>
       <c r="G32">
-        <v>69.34598150443539</v>
+        <v>102.0110676867836</v>
       </c>
       <c r="H32">
-        <v>6.127700666553386</v>
+        <v>9.01577847409046</v>
       </c>
       <c r="I32">
-        <v>814.5084178589746</v>
+        <v>1108.226924097988</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1325,28 +1325,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>683.2287449315854</v>
+        <v>906.5363052500966</v>
       </c>
       <c r="C33">
-        <v>4.935733558327072</v>
+        <v>7.262019277785725</v>
       </c>
       <c r="D33">
-        <v>51.6699799695826</v>
+        <v>75.9747715857994</v>
       </c>
       <c r="E33">
-        <v>40.79409038108117</v>
+        <v>60.02096086960488</v>
       </c>
       <c r="F33">
-        <v>13.77336177378185</v>
+        <v>20.19737128788098</v>
       </c>
       <c r="G33">
-        <v>34.67299075221769</v>
+        <v>51.00553384339179</v>
       </c>
       <c r="H33">
-        <v>4.7659894073193</v>
+        <v>7.012272146514803</v>
       </c>
       <c r="I33">
-        <v>833.8408907738954</v>
+        <v>1128.009234261074</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1354,28 +1354,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>712.995245864023</v>
+        <v>946.0317362835445</v>
       </c>
       <c r="C34">
-        <v>3.440056722470383</v>
+        <v>5.061407375426417</v>
       </c>
       <c r="D34">
-        <v>59.05140567952295</v>
+        <v>86.8283103837707</v>
       </c>
       <c r="E34">
-        <v>52.44954477567579</v>
+        <v>77.1698068323491</v>
       </c>
       <c r="F34">
-        <v>9.311568523120117</v>
+        <v>13.6545608706801</v>
       </c>
       <c r="G34">
-        <v>18.3562892217623</v>
+        <v>27.00292968179566</v>
       </c>
       <c r="H34">
-        <v>3.404278148085214</v>
+        <v>5.008765818939146</v>
       </c>
       <c r="I34">
-        <v>859.0083889346598</v>
+        <v>1160.757517246506</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1383,28 +1383,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>500.0772156649433</v>
+        <v>663.5232413619359</v>
       </c>
       <c r="C35">
-        <v>3.140921355299045</v>
+        <v>4.621284994954554</v>
       </c>
       <c r="D35">
-        <v>48.50651180817955</v>
+        <v>71.32325495809735</v>
       </c>
       <c r="E35">
-        <v>39.33715858175683</v>
+        <v>57.87735512426183</v>
       </c>
       <c r="F35">
-        <v>5.431748305153404</v>
+        <v>7.965160507896726</v>
       </c>
       <c r="G35">
-        <v>30.59381536960384</v>
+        <v>45.00488280299277</v>
       </c>
       <c r="H35">
-        <v>3.404278148085214</v>
+        <v>5.008765818939146</v>
       </c>
       <c r="I35">
-        <v>630.4916492330212</v>
+        <v>855.3239455690783</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1412,28 +1412,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>442.6453785717704</v>
+        <v>587.3202920738701</v>
       </c>
       <c r="C36">
-        <v>2.093947570199364</v>
+        <v>3.080856663303035</v>
       </c>
       <c r="D36">
-        <v>32.68917100116449</v>
+        <v>48.06567181958736</v>
       </c>
       <c r="E36">
-        <v>42.2510221804055</v>
+        <v>62.16456661494789</v>
       </c>
       <c r="F36">
-        <v>4.26780223976339</v>
+        <v>6.258340399061714</v>
       </c>
       <c r="G36">
-        <v>28.55422767829693</v>
+        <v>42.00455728279323</v>
       </c>
       <c r="H36">
-        <v>4.7659894073193</v>
+        <v>7.012272146514803</v>
       </c>
       <c r="I36">
-        <v>557.2675386489194</v>
+        <v>755.9065570000781</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1441,28 +1441,28 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>354.0462640316931</v>
+        <v>469.7633032331352</v>
       </c>
       <c r="C37">
-        <v>2.093947570199364</v>
+        <v>3.080856663303035</v>
       </c>
       <c r="D37">
-        <v>35.85263916256753</v>
+        <v>52.71718844728937</v>
       </c>
       <c r="E37">
-        <v>23.31090878918924</v>
+        <v>34.2976919254885</v>
       </c>
       <c r="F37">
-        <v>3.782824712517549</v>
+        <v>5.547165353713789</v>
       </c>
       <c r="G37">
-        <v>18.3562892217623</v>
+        <v>27.00292968179566</v>
       </c>
       <c r="H37">
-        <v>2.723422518468171</v>
+        <v>4.007012655151317</v>
       </c>
       <c r="I37">
-        <v>440.1662960063973</v>
+        <v>596.4161479598769</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1470,28 +1470,28 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>272.4510320639538</v>
+        <v>361.4993569885056</v>
       </c>
       <c r="C38">
-        <v>3.589624406056052</v>
+        <v>5.281468565662347</v>
       </c>
       <c r="D38">
-        <v>21.08978774268677</v>
+        <v>31.01011085134667</v>
       </c>
       <c r="E38">
-        <v>11.65545439459462</v>
+        <v>17.14884596274425</v>
       </c>
       <c r="F38">
-        <v>2.81286965802587</v>
+        <v>4.124815263017948</v>
       </c>
       <c r="G38">
-        <v>18.3562892217623</v>
+        <v>27.00292968179566</v>
       </c>
       <c r="H38">
-        <v>1.361711259234086</v>
+        <v>2.003506327575658</v>
       </c>
       <c r="I38">
-        <v>331.3167687463135</v>
+        <v>448.0710336406481</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1499,28 +1499,28 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>170.1943465078168</v>
+        <v>225.8209350853647</v>
       </c>
       <c r="C39">
-        <v>2.841785988127709</v>
+        <v>4.181162614482692</v>
       </c>
       <c r="D39">
-        <v>14.76285141988074</v>
+        <v>21.70707759594267</v>
       </c>
       <c r="E39">
-        <v>5.099261297635146</v>
+        <v>7.50262010870061</v>
       </c>
       <c r="F39">
-        <v>1.454932581737519</v>
+        <v>2.133525136043766</v>
       </c>
       <c r="G39">
-        <v>12.23752614784154</v>
+        <v>18.0019531211971</v>
       </c>
       <c r="H39">
-        <v>0.6808556296170428</v>
+        <v>1.001753163787829</v>
       </c>
       <c r="I39">
-        <v>207.2715595726565</v>
+        <v>280.3490268255194</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1528,28 +1528,28 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>129.2216334596387</v>
+        <v>171.4566358981474</v>
       </c>
       <c r="C40">
-        <v>6.132275027012424</v>
+        <v>9.022508799673176</v>
       </c>
       <c r="D40">
-        <v>11.59938325847772</v>
+        <v>17.05556096824067</v>
       </c>
       <c r="E40">
-        <v>2.913863598648655</v>
+        <v>4.287211490686063</v>
       </c>
       <c r="F40">
-        <v>1.357937076288351</v>
+        <v>1.991290126974181</v>
       </c>
       <c r="G40">
-        <v>22.43546460437616</v>
+        <v>33.00358072219468</v>
       </c>
       <c r="H40">
-        <v>1.361711259234086</v>
+        <v>2.003506327575658</v>
       </c>
       <c r="I40">
-        <v>175.0222682836761</v>
+        <v>238.8202943334918</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1557,28 +1557,28 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>92.45124995486347</v>
+        <v>122.6681622685933</v>
       </c>
       <c r="C41">
-        <v>4.636598191155734</v>
+        <v>6.821896897313867</v>
       </c>
       <c r="D41">
-        <v>7.381425709940369</v>
+        <v>10.85353879797134</v>
       </c>
       <c r="E41">
-        <v>0.7284658996621637</v>
+        <v>1.071802872671516</v>
       </c>
       <c r="F41">
-        <v>2.424887636229198</v>
+        <v>3.555875226739609</v>
       </c>
       <c r="G41">
-        <v>22.43546460437616</v>
+        <v>33.00358072219468</v>
       </c>
       <c r="H41">
-        <v>0.6808556296170428</v>
+        <v>1.001753163787829</v>
       </c>
       <c r="I41">
-        <v>130.7389476258442</v>
+        <v>178.9766099492721</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1586,25 +1586,25 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>68.28785508029682</v>
+        <v>90.60716531202908</v>
       </c>
       <c r="C42">
-        <v>2.692218304542039</v>
+        <v>3.961101424246761</v>
       </c>
       <c r="D42">
-        <v>11.59938325847772</v>
+        <v>17.05556096824067</v>
       </c>
       <c r="E42">
-        <v>1.456931799324327</v>
+        <v>2.143605745343031</v>
       </c>
       <c r="F42">
-        <v>1.260941570839183</v>
+        <v>1.849055117904596</v>
       </c>
       <c r="G42">
-        <v>20.39587691306923</v>
+        <v>30.00325520199517</v>
       </c>
       <c r="I42">
-        <v>105.6932069265493</v>
+        <v>145.6197437697593</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1612,28 +1612,28 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>53.57970167838678</v>
+        <v>71.09177586020742</v>
       </c>
       <c r="C43">
-        <v>2.393082937370702</v>
+        <v>3.520979043774898</v>
       </c>
       <c r="D43">
-        <v>11.59938325847772</v>
+        <v>17.05556096824067</v>
       </c>
       <c r="E43">
-        <v>1.456931799324327</v>
+        <v>2.143605745343031</v>
       </c>
       <c r="F43">
-        <v>1.551928087186687</v>
+        <v>2.275760145113351</v>
       </c>
       <c r="G43">
-        <v>28.55422767829693</v>
+        <v>42.00455728279323</v>
       </c>
       <c r="H43">
-        <v>0.6808556296170428</v>
+        <v>1.001753163787829</v>
       </c>
       <c r="I43">
-        <v>99.81611106866018</v>
+        <v>139.0939922092604</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1641,25 +1641,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>88.24892041146057</v>
+        <v>117.0923367109299</v>
       </c>
       <c r="C44">
-        <v>1.944379886613695</v>
+        <v>2.860795473067105</v>
       </c>
       <c r="D44">
-        <v>12.65387264561206</v>
+        <v>18.60606651080801</v>
       </c>
       <c r="E44">
-        <v>2.185397698986492</v>
+        <v>3.215408618014545</v>
       </c>
       <c r="F44">
-        <v>4.26780223976339</v>
+        <v>6.258340399061714</v>
       </c>
       <c r="G44">
-        <v>28.55422767829693</v>
+        <v>42.00455728279323</v>
       </c>
       <c r="I44">
-        <v>137.8546005607331</v>
+        <v>190.0375049946745</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1667,28 +1667,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>209.7662830415274</v>
+        <v>278.3266257533611</v>
       </c>
       <c r="C45">
-        <v>1.645244519442357</v>
+        <v>2.420673092595242</v>
       </c>
       <c r="D45">
-        <v>20.03529835555243</v>
+        <v>29.45960530877934</v>
       </c>
       <c r="E45">
-        <v>23.31090878918924</v>
+        <v>34.2976919254885</v>
       </c>
       <c r="F45">
-        <v>9.311568523120117</v>
+        <v>13.6545608706801</v>
       </c>
       <c r="G45">
-        <v>61.18763073920768</v>
+        <v>90.00976560598554</v>
       </c>
       <c r="H45">
-        <v>1.361711259234086</v>
+        <v>2.003506327575658</v>
       </c>
       <c r="I45">
-        <v>326.6186452272733</v>
+        <v>450.1724288844654</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1696,28 +1696,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>383.4625708355132</v>
+        <v>508.7940821367785</v>
       </c>
       <c r="C46">
-        <v>1.645244519442357</v>
+        <v>2.420673092595242</v>
       </c>
       <c r="D46">
-        <v>43.23406487250787</v>
+        <v>63.57072724526068</v>
       </c>
       <c r="E46">
-        <v>71.38965816689205</v>
+        <v>105.0366815218085</v>
       </c>
       <c r="F46">
-        <v>11.83345166479849</v>
+        <v>17.35267110648929</v>
       </c>
       <c r="G46">
-        <v>120.3356737871085</v>
+        <v>177.0192056917714</v>
       </c>
       <c r="H46">
-        <v>2.723422518468171</v>
+        <v>4.007012655151317</v>
       </c>
       <c r="I46">
-        <v>634.6240863647306</v>
+        <v>878.201053449855</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1725,28 +1725,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>523.5402222822762</v>
+        <v>694.6549340588895</v>
       </c>
       <c r="C47">
-        <v>2.54265062095637</v>
+        <v>3.74104023401083</v>
       </c>
       <c r="D47">
-        <v>54.83344813098564</v>
+        <v>80.6262882135014</v>
       </c>
       <c r="E47">
-        <v>56.82034017364877</v>
+        <v>83.6006240683782</v>
       </c>
       <c r="F47">
-        <v>12.31842919204433</v>
+        <v>18.06384615183721</v>
       </c>
       <c r="G47">
-        <v>97.90020918273231</v>
+        <v>144.0156249695768</v>
       </c>
       <c r="H47">
-        <v>4.7659894073193</v>
+        <v>7.012272146514803</v>
       </c>
       <c r="I47">
-        <v>752.7212889899629</v>
+        <v>1031.714629842709</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1754,28 +1754,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>577.820312217897</v>
+        <v>766.6760141787078</v>
       </c>
       <c r="C48">
-        <v>3.739192089641721</v>
+        <v>5.501529755898278</v>
       </c>
       <c r="D48">
-        <v>63.26936322806031</v>
+        <v>93.0303325540401</v>
       </c>
       <c r="E48">
-        <v>29.13863598648654</v>
+        <v>42.87211490686063</v>
       </c>
       <c r="F48">
-        <v>15.22829435551937</v>
+        <v>22.33089642392473</v>
       </c>
       <c r="G48">
-        <v>101.9793845653462</v>
+        <v>150.0162760099758</v>
       </c>
       <c r="H48">
-        <v>6.127700666553386</v>
+        <v>9.01577847409046</v>
       </c>
       <c r="I48">
-        <v>797.3028831095046</v>
+        <v>1089.442942303498</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1783,28 +1783,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>486.0694505202671</v>
+        <v>644.937156169725</v>
       </c>
       <c r="C49">
-        <v>7.328816495697773</v>
+        <v>10.78299832156063</v>
       </c>
       <c r="D49">
-        <v>71.70527832513507</v>
+        <v>105.4343768945787</v>
       </c>
       <c r="E49">
-        <v>19.66857929087842</v>
+        <v>28.93867756213092</v>
       </c>
       <c r="F49">
-        <v>18.72013255168941</v>
+        <v>27.45135675042978</v>
       </c>
       <c r="G49">
-        <v>136.6523753175638</v>
+        <v>201.0218098533676</v>
       </c>
       <c r="H49">
-        <v>2.723422518468171</v>
+        <v>4.007012655151317</v>
       </c>
       <c r="I49">
-        <v>742.8680550196997</v>
+        <v>1022.573388206944</v>
       </c>
     </row>
   </sheetData>
